--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -34,12 +34,12 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="12"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="14"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -76,14 +76,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0070AD47"/>
-        <bgColor rgb="0070AD47"/>
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="0070AD47"/>
+        <bgColor rgb="0070AD47"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,16 +120,16 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -146,30 +146,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -538,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
@@ -584,73 +584,88 @@
     <col width="12" customWidth="1" min="36" max="36"/>
     <col width="12" customWidth="1" min="37" max="37"/>
     <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="12" customWidth="1" min="39" max="39"/>
+    <col width="12" customWidth="1" min="40" max="40"/>
+    <col width="12" customWidth="1" min="41" max="41"/>
+    <col width="12" customWidth="1" min="42" max="42"/>
+    <col width="12" customWidth="1" min="43" max="43"/>
+    <col width="12" customWidth="1" min="44" max="44"/>
+    <col width="12" customWidth="1" min="45" max="45"/>
+    <col width="12" customWidth="1" min="46" max="46"/>
+    <col width="12" customWidth="1" min="47" max="47"/>
+    <col width="12" customWidth="1" min="48" max="48"/>
+    <col width="12" customWidth="1" min="49" max="49"/>
+    <col width="12" customWidth="1" min="50" max="50"/>
+    <col width="12" customWidth="1" min="51" max="51"/>
+    <col width="12" customWidth="1" min="52" max="52"/>
+    <col width="12" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>多語言敏感詞對照表（橫向分區塊版）</t>
+          <t>多語言敏感詞對照表（語言獨立橫向分區塊版）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>en_US</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>th_TH</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>ta_IN</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>id_ID</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>ms_MY</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="AK2" s="2" t="inlineStr">
+        <is>
+          <t>zh-TW</t>
+        </is>
+      </c>
+      <c r="AQ2" s="2" t="inlineStr">
+        <is>
+          <t>vi_VN</t>
+        </is>
+      </c>
+      <c r="AW2" s="2" t="inlineStr">
+        <is>
+          <t>zh-MO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>敏感詞類型</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>敏感詞</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>en_US</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>th_TH</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>ta_IN</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>id_ID</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>ms_MY</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>zh-CN</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="inlineStr">
-        <is>
-          <t>zh-TW</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>vi_VN</t>
-        </is>
-      </c>
-      <c r="AI2" s="3" t="inlineStr">
-        <is>
-          <t>zh-MO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
       <c r="C3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
@@ -666,122 +681,202 @@
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="Z3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="AB3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="AC3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="AE3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="AF3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="AG3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="AH3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="AI3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="inlineStr">
+      <c r="AK3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="AL3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="AM3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="AB3" s="4" t="inlineStr">
+      <c r="AN3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="AC3" s="4" t="inlineStr">
+      <c r="AO3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="AE3" s="4" t="inlineStr">
+      <c r="AQ3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="AR3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="AS3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="AF3" s="4" t="inlineStr">
+      <c r="AT3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="AG3" s="4" t="inlineStr">
+      <c r="AU3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
       </c>
-      <c r="AI3" s="4" t="inlineStr">
+      <c r="AW3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞類型</t>
+        </is>
+      </c>
+      <c r="AX3" s="3" t="inlineStr">
+        <is>
+          <t>敏感詞</t>
+        </is>
+      </c>
+      <c r="AY3" s="4" t="inlineStr">
         <is>
           <t>企業</t>
         </is>
       </c>
-      <c r="AJ3" s="4" t="inlineStr">
+      <c r="AZ3" s="4" t="inlineStr">
         <is>
           <t>公部門</t>
         </is>
       </c>
-      <c r="AK3" s="4" t="inlineStr">
+      <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>培訓機構</t>
         </is>
@@ -795,36 +890,116 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>出席</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr"/>
       <c r="D4" s="6" t="inlineStr"/>
       <c r="E4" s="6" t="inlineStr"/>
-      <c r="G4" s="6" t="inlineStr"/>
-      <c r="H4" s="6" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
       <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
       <c r="K4" s="6" t="inlineStr"/>
-      <c r="L4" s="6" t="inlineStr"/>
-      <c r="M4" s="6" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
       <c r="O4" s="6" t="inlineStr"/>
       <c r="P4" s="6" t="inlineStr"/>
       <c r="Q4" s="6" t="inlineStr"/>
-      <c r="S4" s="6" t="inlineStr"/>
-      <c r="T4" s="6" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
       <c r="U4" s="6" t="inlineStr"/>
+      <c r="V4" s="6" t="inlineStr"/>
       <c r="W4" s="6" t="inlineStr"/>
-      <c r="X4" s="6" t="inlineStr"/>
-      <c r="Y4" s="6" t="inlineStr"/>
+      <c r="Y4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="Z4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
       <c r="AA4" s="6" t="inlineStr"/>
       <c r="AB4" s="6" t="inlineStr"/>
       <c r="AC4" s="6" t="inlineStr"/>
-      <c r="AE4" s="6" t="inlineStr"/>
-      <c r="AF4" s="6" t="inlineStr"/>
+      <c r="AE4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="AF4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
       <c r="AG4" s="6" t="inlineStr"/>
+      <c r="AH4" s="6" t="inlineStr"/>
       <c r="AI4" s="6" t="inlineStr"/>
-      <c r="AJ4" s="6" t="inlineStr"/>
-      <c r="AK4" s="6" t="inlineStr"/>
+      <c r="AK4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="AL4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="AM4" s="6" t="inlineStr"/>
+      <c r="AN4" s="6" t="inlineStr"/>
+      <c r="AO4" s="6" t="inlineStr"/>
+      <c r="AQ4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="AR4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="AS4" s="6" t="inlineStr"/>
+      <c r="AT4" s="6" t="inlineStr"/>
+      <c r="AU4" s="6" t="inlineStr"/>
+      <c r="AW4" s="5" t="inlineStr">
+        <is>
+          <t>學員相關</t>
+        </is>
+      </c>
+      <c r="AX4" s="5" t="inlineStr">
+        <is>
+          <t>學生</t>
+        </is>
+      </c>
+      <c r="AY4" s="6" t="inlineStr"/>
+      <c r="AZ4" s="6" t="inlineStr"/>
+      <c r="BA4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr"/>
@@ -836,30 +1011,78 @@
       <c r="C5" s="8" t="inlineStr"/>
       <c r="D5" s="8" t="inlineStr"/>
       <c r="E5" s="8" t="inlineStr"/>
-      <c r="G5" s="8" t="inlineStr"/>
-      <c r="H5" s="8" t="inlineStr"/>
+      <c r="G5" s="7" t="inlineStr"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
       <c r="I5" s="8" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr"/>
       <c r="K5" s="8" t="inlineStr"/>
-      <c r="L5" s="8" t="inlineStr"/>
-      <c r="M5" s="8" t="inlineStr"/>
+      <c r="M5" s="7" t="inlineStr"/>
+      <c r="N5" s="7" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
       <c r="O5" s="8" t="inlineStr"/>
       <c r="P5" s="8" t="inlineStr"/>
       <c r="Q5" s="8" t="inlineStr"/>
-      <c r="S5" s="8" t="inlineStr"/>
-      <c r="T5" s="8" t="inlineStr"/>
+      <c r="S5" s="7" t="inlineStr"/>
+      <c r="T5" s="7" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
       <c r="U5" s="8" t="inlineStr"/>
+      <c r="V5" s="8" t="inlineStr"/>
       <c r="W5" s="8" t="inlineStr"/>
-      <c r="X5" s="8" t="inlineStr"/>
-      <c r="Y5" s="8" t="inlineStr"/>
+      <c r="Y5" s="7" t="inlineStr"/>
+      <c r="Z5" s="7" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
       <c r="AA5" s="8" t="inlineStr"/>
       <c r="AB5" s="8" t="inlineStr"/>
       <c r="AC5" s="8" t="inlineStr"/>
-      <c r="AE5" s="8" t="inlineStr"/>
-      <c r="AF5" s="8" t="inlineStr"/>
+      <c r="AE5" s="7" t="inlineStr"/>
+      <c r="AF5" s="7" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
       <c r="AG5" s="8" t="inlineStr"/>
+      <c r="AH5" s="8" t="inlineStr"/>
       <c r="AI5" s="8" t="inlineStr"/>
-      <c r="AJ5" s="8" t="inlineStr"/>
-      <c r="AK5" s="8" t="inlineStr"/>
+      <c r="AK5" s="7" t="inlineStr"/>
+      <c r="AL5" s="7" t="inlineStr">
+        <is>
+          <t>學員</t>
+        </is>
+      </c>
+      <c r="AM5" s="8" t="inlineStr"/>
+      <c r="AN5" s="8" t="inlineStr"/>
+      <c r="AO5" s="8" t="inlineStr"/>
+      <c r="AQ5" s="7" t="inlineStr"/>
+      <c r="AR5" s="7" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
+      <c r="AS5" s="8" t="inlineStr"/>
+      <c r="AT5" s="8" t="inlineStr"/>
+      <c r="AU5" s="8" t="inlineStr"/>
+      <c r="AW5" s="7" t="inlineStr"/>
+      <c r="AX5" s="7" t="inlineStr">
+        <is>
+          <t>學員</t>
+        </is>
+      </c>
+      <c r="AY5" s="8" t="inlineStr"/>
+      <c r="AZ5" s="8" t="inlineStr"/>
+      <c r="BA5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr"/>
@@ -871,1241 +1094,1057 @@
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
       <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
       <c r="O6" s="6" t="inlineStr"/>
       <c r="P6" s="6" t="inlineStr"/>
       <c r="Q6" s="6" t="inlineStr"/>
-      <c r="S6" s="6" t="inlineStr"/>
-      <c r="T6" s="6" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
       <c r="U6" s="6" t="inlineStr"/>
+      <c r="V6" s="6" t="inlineStr"/>
       <c r="W6" s="6" t="inlineStr"/>
-      <c r="X6" s="6" t="inlineStr"/>
-      <c r="Y6" s="6" t="inlineStr"/>
+      <c r="Y6" s="5" t="inlineStr"/>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
       <c r="AA6" s="6" t="inlineStr"/>
       <c r="AB6" s="6" t="inlineStr"/>
       <c r="AC6" s="6" t="inlineStr"/>
-      <c r="AE6" s="6" t="inlineStr"/>
-      <c r="AF6" s="6" t="inlineStr"/>
+      <c r="AE6" s="5" t="inlineStr"/>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
       <c r="AG6" s="6" t="inlineStr"/>
+      <c r="AH6" s="6" t="inlineStr"/>
       <c r="AI6" s="6" t="inlineStr"/>
-      <c r="AJ6" s="6" t="inlineStr"/>
-      <c r="AK6" s="6" t="inlineStr"/>
+      <c r="AK6" s="5" t="inlineStr"/>
+      <c r="AL6" s="5" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
+      <c r="AM6" s="6" t="inlineStr"/>
+      <c r="AN6" s="6" t="inlineStr"/>
+      <c r="AO6" s="6" t="inlineStr"/>
+      <c r="AQ6" s="5" t="inlineStr"/>
+      <c r="AR6" s="5" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
+      <c r="AS6" s="6" t="inlineStr"/>
+      <c r="AT6" s="6" t="inlineStr"/>
+      <c r="AU6" s="6" t="inlineStr"/>
+      <c r="AW6" s="5" t="inlineStr"/>
+      <c r="AX6" s="5" t="inlineStr">
+        <is>
+          <t>參與者</t>
+        </is>
+      </c>
+      <c r="AY6" s="6" t="inlineStr"/>
+      <c r="AZ6" s="6" t="inlineStr"/>
+      <c r="BA6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr"/>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>姓名</t>
+          <t>班級</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr"/>
       <c r="D7" s="8" t="inlineStr"/>
       <c r="E7" s="8" t="inlineStr"/>
-      <c r="G7" s="8" t="inlineStr"/>
-      <c r="H7" s="8" t="inlineStr"/>
+      <c r="G7" s="7" t="inlineStr"/>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
       <c r="I7" s="8" t="inlineStr"/>
+      <c r="J7" s="8" t="inlineStr"/>
       <c r="K7" s="8" t="inlineStr"/>
-      <c r="L7" s="8" t="inlineStr"/>
-      <c r="M7" s="8" t="inlineStr"/>
+      <c r="M7" s="7" t="inlineStr"/>
+      <c r="N7" s="7" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
       <c r="O7" s="8" t="inlineStr"/>
       <c r="P7" s="8" t="inlineStr"/>
       <c r="Q7" s="8" t="inlineStr"/>
-      <c r="S7" s="8" t="inlineStr"/>
-      <c r="T7" s="8" t="inlineStr"/>
+      <c r="S7" s="7" t="inlineStr"/>
+      <c r="T7" s="7" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
       <c r="U7" s="8" t="inlineStr"/>
+      <c r="V7" s="8" t="inlineStr"/>
       <c r="W7" s="8" t="inlineStr"/>
-      <c r="X7" s="8" t="inlineStr"/>
-      <c r="Y7" s="8" t="inlineStr"/>
+      <c r="Y7" s="7" t="inlineStr"/>
+      <c r="Z7" s="7" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
       <c r="AA7" s="8" t="inlineStr"/>
       <c r="AB7" s="8" t="inlineStr"/>
       <c r="AC7" s="8" t="inlineStr"/>
-      <c r="AE7" s="8" t="inlineStr"/>
-      <c r="AF7" s="8" t="inlineStr"/>
+      <c r="AE7" s="7" t="inlineStr"/>
+      <c r="AF7" s="7" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
       <c r="AG7" s="8" t="inlineStr"/>
+      <c r="AH7" s="8" t="inlineStr"/>
       <c r="AI7" s="8" t="inlineStr"/>
-      <c r="AJ7" s="8" t="inlineStr"/>
-      <c r="AK7" s="8" t="inlineStr"/>
+      <c r="AK7" s="7" t="inlineStr"/>
+      <c r="AL7" s="7" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
+      <c r="AM7" s="8" t="inlineStr"/>
+      <c r="AN7" s="8" t="inlineStr"/>
+      <c r="AO7" s="8" t="inlineStr"/>
+      <c r="AQ7" s="7" t="inlineStr"/>
+      <c r="AR7" s="7" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
+      <c r="AS7" s="8" t="inlineStr"/>
+      <c r="AT7" s="8" t="inlineStr"/>
+      <c r="AU7" s="8" t="inlineStr"/>
+      <c r="AW7" s="7" t="inlineStr"/>
+      <c r="AX7" s="7" t="inlineStr">
+        <is>
+          <t>同學</t>
+        </is>
+      </c>
+      <c r="AY7" s="8" t="inlineStr"/>
+      <c r="AZ7" s="8" t="inlineStr"/>
+      <c r="BA7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr"/>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>學員</t>
+          <t>組別</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
-      <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
       <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="inlineStr"/>
-      <c r="L8" s="6" t="inlineStr"/>
-      <c r="M8" s="6" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
       <c r="O8" s="6" t="inlineStr"/>
       <c r="P8" s="6" t="inlineStr"/>
       <c r="Q8" s="6" t="inlineStr"/>
-      <c r="S8" s="6" t="inlineStr"/>
-      <c r="T8" s="6" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
       <c r="U8" s="6" t="inlineStr"/>
+      <c r="V8" s="6" t="inlineStr"/>
       <c r="W8" s="6" t="inlineStr"/>
-      <c r="X8" s="6" t="inlineStr"/>
-      <c r="Y8" s="6" t="inlineStr"/>
+      <c r="Y8" s="5" t="inlineStr"/>
+      <c r="Z8" s="5" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
       <c r="AA8" s="6" t="inlineStr"/>
       <c r="AB8" s="6" t="inlineStr"/>
       <c r="AC8" s="6" t="inlineStr"/>
-      <c r="AE8" s="6" t="inlineStr"/>
-      <c r="AF8" s="6" t="inlineStr"/>
+      <c r="AE8" s="5" t="inlineStr"/>
+      <c r="AF8" s="5" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
       <c r="AG8" s="6" t="inlineStr"/>
+      <c r="AH8" s="6" t="inlineStr"/>
       <c r="AI8" s="6" t="inlineStr"/>
-      <c r="AJ8" s="6" t="inlineStr"/>
-      <c r="AK8" s="6" t="inlineStr"/>
+      <c r="AK8" s="5" t="inlineStr"/>
+      <c r="AL8" s="5" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
+      <c r="AM8" s="6" t="inlineStr"/>
+      <c r="AN8" s="6" t="inlineStr"/>
+      <c r="AO8" s="6" t="inlineStr"/>
+      <c r="AQ8" s="5" t="inlineStr"/>
+      <c r="AR8" s="5" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
+      <c r="AS8" s="6" t="inlineStr"/>
+      <c r="AT8" s="6" t="inlineStr"/>
+      <c r="AU8" s="6" t="inlineStr"/>
+      <c r="AW8" s="5" t="inlineStr"/>
+      <c r="AX8" s="5" t="inlineStr">
+        <is>
+          <t>班級</t>
+        </is>
+      </c>
+      <c r="AY8" s="6" t="inlineStr"/>
+      <c r="AZ8" s="6" t="inlineStr"/>
+      <c r="BA8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr"/>
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>老師</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr"/>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
+      <c r="J9" s="8" t="inlineStr"/>
       <c r="K9" s="8" t="inlineStr"/>
-      <c r="L9" s="8" t="inlineStr"/>
-      <c r="M9" s="8" t="inlineStr"/>
+      <c r="M9" s="7" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="N9" s="7" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
       <c r="O9" s="8" t="inlineStr"/>
       <c r="P9" s="8" t="inlineStr"/>
       <c r="Q9" s="8" t="inlineStr"/>
-      <c r="S9" s="8" t="inlineStr"/>
-      <c r="T9" s="8" t="inlineStr"/>
+      <c r="S9" s="7" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
       <c r="U9" s="8" t="inlineStr"/>
+      <c r="V9" s="8" t="inlineStr"/>
       <c r="W9" s="8" t="inlineStr"/>
-      <c r="X9" s="8" t="inlineStr"/>
-      <c r="Y9" s="8" t="inlineStr"/>
+      <c r="Y9" s="7" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="Z9" s="7" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
       <c r="AA9" s="8" t="inlineStr"/>
       <c r="AB9" s="8" t="inlineStr"/>
       <c r="AC9" s="8" t="inlineStr"/>
-      <c r="AE9" s="8" t="inlineStr"/>
-      <c r="AF9" s="8" t="inlineStr"/>
+      <c r="AE9" s="7" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="AF9" s="7" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
       <c r="AG9" s="8" t="inlineStr"/>
+      <c r="AH9" s="8" t="inlineStr"/>
       <c r="AI9" s="8" t="inlineStr"/>
-      <c r="AJ9" s="8" t="inlineStr"/>
-      <c r="AK9" s="8" t="inlineStr"/>
+      <c r="AK9" s="7" t="inlineStr"/>
+      <c r="AL9" s="7" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
+      <c r="AM9" s="8" t="inlineStr"/>
+      <c r="AN9" s="8" t="inlineStr"/>
+      <c r="AO9" s="8" t="inlineStr"/>
+      <c r="AQ9" s="7" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="AR9" s="7" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
+      <c r="AS9" s="8" t="inlineStr"/>
+      <c r="AT9" s="8" t="inlineStr"/>
+      <c r="AU9" s="8" t="inlineStr"/>
+      <c r="AW9" s="7" t="inlineStr"/>
+      <c r="AX9" s="7" t="inlineStr">
+        <is>
+          <t>組別</t>
+        </is>
+      </c>
+      <c r="AY9" s="8" t="inlineStr"/>
+      <c r="AZ9" s="8" t="inlineStr"/>
+      <c r="BA9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr"/>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>學號</t>
+          <t>教師</t>
         </is>
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
       <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
       <c r="O10" s="6" t="inlineStr"/>
       <c r="P10" s="6" t="inlineStr"/>
       <c r="Q10" s="6" t="inlineStr"/>
-      <c r="S10" s="6" t="inlineStr"/>
-      <c r="T10" s="6" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
       <c r="U10" s="6" t="inlineStr"/>
+      <c r="V10" s="6" t="inlineStr"/>
       <c r="W10" s="6" t="inlineStr"/>
-      <c r="X10" s="6" t="inlineStr"/>
-      <c r="Y10" s="6" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr"/>
+      <c r="Z10" s="5" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
       <c r="AA10" s="6" t="inlineStr"/>
       <c r="AB10" s="6" t="inlineStr"/>
       <c r="AC10" s="6" t="inlineStr"/>
-      <c r="AE10" s="6" t="inlineStr"/>
-      <c r="AF10" s="6" t="inlineStr"/>
+      <c r="AE10" s="5" t="inlineStr"/>
+      <c r="AF10" s="5" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
       <c r="AG10" s="6" t="inlineStr"/>
+      <c r="AH10" s="6" t="inlineStr"/>
       <c r="AI10" s="6" t="inlineStr"/>
-      <c r="AJ10" s="6" t="inlineStr"/>
-      <c r="AK10" s="6" t="inlineStr"/>
+      <c r="AK10" s="5" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="AL10" s="5" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
+      <c r="AM10" s="6" t="inlineStr"/>
+      <c r="AN10" s="6" t="inlineStr"/>
+      <c r="AO10" s="6" t="inlineStr"/>
+      <c r="AQ10" s="5" t="inlineStr"/>
+      <c r="AR10" s="5" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
+      <c r="AS10" s="6" t="inlineStr"/>
+      <c r="AT10" s="6" t="inlineStr"/>
+      <c r="AU10" s="6" t="inlineStr"/>
+      <c r="AW10" s="5" t="inlineStr">
+        <is>
+          <t>師資相關</t>
+        </is>
+      </c>
+      <c r="AX10" s="5" t="inlineStr">
+        <is>
+          <t>老師</t>
+        </is>
+      </c>
+      <c r="AY10" s="6" t="inlineStr"/>
+      <c r="AZ10" s="6" t="inlineStr"/>
+      <c r="BA10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>班級</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr"/>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
       <c r="I11" s="8" t="inlineStr"/>
+      <c r="J11" s="8" t="inlineStr"/>
       <c r="K11" s="8" t="inlineStr"/>
-      <c r="L11" s="8" t="inlineStr"/>
-      <c r="M11" s="8" t="inlineStr"/>
+      <c r="M11" s="7" t="inlineStr"/>
+      <c r="N11" s="7" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
       <c r="O11" s="8" t="inlineStr"/>
       <c r="P11" s="8" t="inlineStr"/>
       <c r="Q11" s="8" t="inlineStr"/>
-      <c r="S11" s="8" t="inlineStr"/>
-      <c r="T11" s="8" t="inlineStr"/>
+      <c r="S11" s="7" t="inlineStr"/>
+      <c r="T11" s="7" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
       <c r="U11" s="8" t="inlineStr"/>
+      <c r="V11" s="8" t="inlineStr"/>
       <c r="W11" s="8" t="inlineStr"/>
-      <c r="X11" s="8" t="inlineStr"/>
-      <c r="Y11" s="8" t="inlineStr"/>
+      <c r="Y11" s="7" t="inlineStr"/>
+      <c r="Z11" s="7" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
       <c r="AA11" s="8" t="inlineStr"/>
       <c r="AB11" s="8" t="inlineStr"/>
       <c r="AC11" s="8" t="inlineStr"/>
-      <c r="AE11" s="8" t="inlineStr"/>
-      <c r="AF11" s="8" t="inlineStr"/>
+      <c r="AE11" s="7" t="inlineStr"/>
+      <c r="AF11" s="7" t="inlineStr">
+        <is>
+          <t>講師</t>
+        </is>
+      </c>
       <c r="AG11" s="8" t="inlineStr"/>
+      <c r="AH11" s="8" t="inlineStr"/>
       <c r="AI11" s="8" t="inlineStr"/>
-      <c r="AJ11" s="8" t="inlineStr"/>
-      <c r="AK11" s="8" t="inlineStr"/>
+      <c r="AK11" s="7" t="inlineStr"/>
+      <c r="AL11" s="7" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
+      <c r="AM11" s="8" t="inlineStr"/>
+      <c r="AN11" s="8" t="inlineStr"/>
+      <c r="AO11" s="8" t="inlineStr"/>
+      <c r="AQ11" s="7" t="inlineStr"/>
+      <c r="AR11" s="7" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
+      <c r="AS11" s="8" t="inlineStr"/>
+      <c r="AT11" s="8" t="inlineStr"/>
+      <c r="AU11" s="8" t="inlineStr"/>
+      <c r="AW11" s="7" t="inlineStr"/>
+      <c r="AX11" s="7" t="inlineStr">
+        <is>
+          <t>教師</t>
+        </is>
+      </c>
+      <c r="AY11" s="8" t="inlineStr"/>
+      <c r="AZ11" s="8" t="inlineStr"/>
+      <c r="BA11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr"/>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>組別</t>
+          <t>助教</t>
         </is>
       </c>
       <c r="C12" s="6" t="inlineStr"/>
       <c r="D12" s="6" t="inlineStr"/>
       <c r="E12" s="6" t="inlineStr"/>
-      <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
       <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
       <c r="K12" s="6" t="inlineStr"/>
-      <c r="L12" s="6" t="inlineStr"/>
-      <c r="M12" s="6" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
       <c r="O12" s="6" t="inlineStr"/>
       <c r="P12" s="6" t="inlineStr"/>
       <c r="Q12" s="6" t="inlineStr"/>
-      <c r="S12" s="6" t="inlineStr"/>
-      <c r="T12" s="6" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
       <c r="U12" s="6" t="inlineStr"/>
+      <c r="V12" s="6" t="inlineStr"/>
       <c r="W12" s="6" t="inlineStr"/>
-      <c r="X12" s="6" t="inlineStr"/>
-      <c r="Y12" s="6" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
       <c r="AA12" s="6" t="inlineStr"/>
       <c r="AB12" s="6" t="inlineStr"/>
       <c r="AC12" s="6" t="inlineStr"/>
-      <c r="AE12" s="6" t="inlineStr"/>
-      <c r="AF12" s="6" t="inlineStr"/>
+      <c r="AE12" s="5" t="inlineStr"/>
+      <c r="AF12" s="5" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
       <c r="AG12" s="6" t="inlineStr"/>
+      <c r="AH12" s="6" t="inlineStr"/>
       <c r="AI12" s="6" t="inlineStr"/>
-      <c r="AJ12" s="6" t="inlineStr"/>
-      <c r="AK12" s="6" t="inlineStr"/>
+      <c r="AK12" s="5" t="inlineStr"/>
+      <c r="AL12" s="5" t="inlineStr">
+        <is>
+          <t>講師</t>
+        </is>
+      </c>
+      <c r="AM12" s="6" t="inlineStr"/>
+      <c r="AN12" s="6" t="inlineStr"/>
+      <c r="AO12" s="6" t="inlineStr"/>
+      <c r="AQ12" s="5" t="inlineStr"/>
+      <c r="AR12" s="5" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
+      <c r="AS12" s="6" t="inlineStr"/>
+      <c r="AT12" s="6" t="inlineStr"/>
+      <c r="AU12" s="6" t="inlineStr"/>
+      <c r="AW12" s="5" t="inlineStr"/>
+      <c r="AX12" s="5" t="inlineStr">
+        <is>
+          <t>講師</t>
+        </is>
+      </c>
+      <c r="AY12" s="6" t="inlineStr"/>
+      <c r="AZ12" s="6" t="inlineStr"/>
+      <c r="BA12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr"/>
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>缺席</t>
+          <t>學期</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
+      <c r="J13" s="8" t="inlineStr"/>
       <c r="K13" s="8" t="inlineStr"/>
-      <c r="L13" s="8" t="inlineStr"/>
-      <c r="M13" s="8" t="inlineStr"/>
+      <c r="M13" s="7" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="N13" s="7" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
       <c r="O13" s="8" t="inlineStr"/>
       <c r="P13" s="8" t="inlineStr"/>
       <c r="Q13" s="8" t="inlineStr"/>
-      <c r="S13" s="8" t="inlineStr"/>
-      <c r="T13" s="8" t="inlineStr"/>
+      <c r="S13" s="7" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="T13" s="7" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
       <c r="U13" s="8" t="inlineStr"/>
+      <c r="V13" s="8" t="inlineStr"/>
       <c r="W13" s="8" t="inlineStr"/>
-      <c r="X13" s="8" t="inlineStr"/>
-      <c r="Y13" s="8" t="inlineStr"/>
+      <c r="Y13" s="7" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="Z13" s="7" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
       <c r="AA13" s="8" t="inlineStr"/>
       <c r="AB13" s="8" t="inlineStr"/>
       <c r="AC13" s="8" t="inlineStr"/>
-      <c r="AE13" s="8" t="inlineStr"/>
-      <c r="AF13" s="8" t="inlineStr"/>
+      <c r="AE13" s="7" t="inlineStr"/>
+      <c r="AF13" s="7" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
       <c r="AG13" s="8" t="inlineStr"/>
+      <c r="AH13" s="8" t="inlineStr"/>
       <c r="AI13" s="8" t="inlineStr"/>
-      <c r="AJ13" s="8" t="inlineStr"/>
-      <c r="AK13" s="8" t="inlineStr"/>
+      <c r="AK13" s="7" t="inlineStr"/>
+      <c r="AL13" s="7" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
+      <c r="AM13" s="8" t="inlineStr"/>
+      <c r="AN13" s="8" t="inlineStr"/>
+      <c r="AO13" s="8" t="inlineStr"/>
+      <c r="AQ13" s="7" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="AR13" s="7" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
+      <c r="AS13" s="8" t="inlineStr"/>
+      <c r="AT13" s="8" t="inlineStr"/>
+      <c r="AU13" s="8" t="inlineStr"/>
+      <c r="AW13" s="7" t="inlineStr"/>
+      <c r="AX13" s="7" t="inlineStr">
+        <is>
+          <t>教授</t>
+        </is>
+      </c>
+      <c r="AY13" s="8" t="inlineStr"/>
+      <c r="AZ13" s="8" t="inlineStr"/>
+      <c r="BA13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr"/>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>聯絡方式</t>
+          <t>學年</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
       <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="inlineStr"/>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
       <c r="O14" s="6" t="inlineStr"/>
       <c r="P14" s="6" t="inlineStr"/>
       <c r="Q14" s="6" t="inlineStr"/>
-      <c r="S14" s="6" t="inlineStr"/>
-      <c r="T14" s="6" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
       <c r="U14" s="6" t="inlineStr"/>
+      <c r="V14" s="6" t="inlineStr"/>
       <c r="W14" s="6" t="inlineStr"/>
-      <c r="X14" s="6" t="inlineStr"/>
-      <c r="Y14" s="6" t="inlineStr"/>
+      <c r="Y14" s="5" t="inlineStr"/>
+      <c r="Z14" s="5" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
       <c r="AA14" s="6" t="inlineStr"/>
       <c r="AB14" s="6" t="inlineStr"/>
       <c r="AC14" s="6" t="inlineStr"/>
-      <c r="AE14" s="6" t="inlineStr"/>
-      <c r="AF14" s="6" t="inlineStr"/>
+      <c r="AE14" s="5" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="AF14" s="5" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
       <c r="AG14" s="6" t="inlineStr"/>
+      <c r="AH14" s="6" t="inlineStr"/>
       <c r="AI14" s="6" t="inlineStr"/>
-      <c r="AJ14" s="6" t="inlineStr"/>
-      <c r="AK14" s="6" t="inlineStr"/>
+      <c r="AK14" s="5" t="inlineStr"/>
+      <c r="AL14" s="5" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
+      <c r="AM14" s="6" t="inlineStr"/>
+      <c r="AN14" s="6" t="inlineStr"/>
+      <c r="AO14" s="6" t="inlineStr"/>
+      <c r="AQ14" s="5" t="inlineStr"/>
+      <c r="AR14" s="5" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
+      <c r="AS14" s="6" t="inlineStr"/>
+      <c r="AT14" s="6" t="inlineStr"/>
+      <c r="AU14" s="6" t="inlineStr"/>
+      <c r="AW14" s="5" t="inlineStr"/>
+      <c r="AX14" s="5" t="inlineStr">
+        <is>
+          <t>助教</t>
+        </is>
+      </c>
+      <c r="AY14" s="6" t="inlineStr"/>
+      <c r="AZ14" s="6" t="inlineStr"/>
+      <c r="BA14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>請假</t>
+          <t>節次</t>
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr"/>
       <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
       <c r="I15" s="8" t="inlineStr"/>
+      <c r="J15" s="8" t="inlineStr"/>
       <c r="K15" s="8" t="inlineStr"/>
-      <c r="L15" s="8" t="inlineStr"/>
-      <c r="M15" s="8" t="inlineStr"/>
+      <c r="M15" s="7" t="inlineStr"/>
+      <c r="N15" s="7" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
       <c r="O15" s="8" t="inlineStr"/>
       <c r="P15" s="8" t="inlineStr"/>
       <c r="Q15" s="8" t="inlineStr"/>
-      <c r="S15" s="8" t="inlineStr"/>
-      <c r="T15" s="8" t="inlineStr"/>
+      <c r="S15" s="7" t="inlineStr"/>
+      <c r="T15" s="7" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
       <c r="U15" s="8" t="inlineStr"/>
+      <c r="V15" s="8" t="inlineStr"/>
       <c r="W15" s="8" t="inlineStr"/>
-      <c r="X15" s="8" t="inlineStr"/>
-      <c r="Y15" s="8" t="inlineStr"/>
+      <c r="Y15" s="7" t="inlineStr"/>
+      <c r="Z15" s="7" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
       <c r="AA15" s="8" t="inlineStr"/>
       <c r="AB15" s="8" t="inlineStr"/>
       <c r="AC15" s="8" t="inlineStr"/>
-      <c r="AE15" s="8" t="inlineStr"/>
-      <c r="AF15" s="8" t="inlineStr"/>
+      <c r="AE15" s="7" t="inlineStr"/>
+      <c r="AF15" s="7" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
       <c r="AG15" s="8" t="inlineStr"/>
+      <c r="AH15" s="8" t="inlineStr"/>
       <c r="AI15" s="8" t="inlineStr"/>
-      <c r="AJ15" s="8" t="inlineStr"/>
-      <c r="AK15" s="8" t="inlineStr"/>
+      <c r="AK15" s="7" t="inlineStr"/>
+      <c r="AL15" s="7" t="inlineStr">
+        <is>
+          <t>輔導員</t>
+        </is>
+      </c>
+      <c r="AM15" s="8" t="inlineStr"/>
+      <c r="AN15" s="8" t="inlineStr"/>
+      <c r="AO15" s="8" t="inlineStr"/>
+      <c r="AQ15" s="7" t="inlineStr"/>
+      <c r="AR15" s="7" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
+      <c r="AS15" s="8" t="inlineStr"/>
+      <c r="AT15" s="8" t="inlineStr"/>
+      <c r="AU15" s="8" t="inlineStr"/>
+      <c r="AW15" s="7" t="inlineStr"/>
+      <c r="AX15" s="7" t="inlineStr">
+        <is>
+          <t>輔導員</t>
+        </is>
+      </c>
+      <c r="AY15" s="8" t="inlineStr"/>
+      <c r="AZ15" s="8" t="inlineStr"/>
+      <c r="BA15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr"/>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>退選</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
-      <c r="E16" s="6" t="inlineStr"/>
-      <c r="G16" s="6" t="inlineStr"/>
-      <c r="H16" s="6" t="inlineStr"/>
-      <c r="I16" s="6" t="inlineStr"/>
-      <c r="K16" s="6" t="inlineStr"/>
-      <c r="L16" s="6" t="inlineStr"/>
-      <c r="M16" s="6" t="inlineStr"/>
-      <c r="O16" s="6" t="inlineStr"/>
-      <c r="P16" s="6" t="inlineStr"/>
-      <c r="Q16" s="6" t="inlineStr"/>
-      <c r="S16" s="6" t="inlineStr"/>
-      <c r="T16" s="6" t="inlineStr"/>
-      <c r="U16" s="6" t="inlineStr"/>
-      <c r="W16" s="6" t="inlineStr"/>
-      <c r="X16" s="6" t="inlineStr"/>
-      <c r="Y16" s="6" t="inlineStr"/>
-      <c r="AA16" s="6" t="inlineStr"/>
-      <c r="AB16" s="6" t="inlineStr"/>
-      <c r="AC16" s="6" t="inlineStr"/>
-      <c r="AE16" s="6" t="inlineStr"/>
-      <c r="AF16" s="6" t="inlineStr"/>
+      <c r="AE16" s="5" t="inlineStr"/>
+      <c r="AF16" s="5" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
       <c r="AG16" s="6" t="inlineStr"/>
+      <c r="AH16" s="6" t="inlineStr"/>
       <c r="AI16" s="6" t="inlineStr"/>
-      <c r="AJ16" s="6" t="inlineStr"/>
-      <c r="AK16" s="6" t="inlineStr"/>
+      <c r="AK16" s="5" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="AL16" s="5" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
+      <c r="AM16" s="6" t="inlineStr"/>
+      <c r="AN16" s="6" t="inlineStr"/>
+      <c r="AO16" s="6" t="inlineStr"/>
+      <c r="AW16" s="5" t="inlineStr">
+        <is>
+          <t>時間相關</t>
+        </is>
+      </c>
+      <c r="AX16" s="5" t="inlineStr">
+        <is>
+          <t>學期</t>
+        </is>
+      </c>
+      <c r="AY16" s="6" t="inlineStr"/>
+      <c r="AZ16" s="6" t="inlineStr"/>
+      <c r="BA16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>師資相關</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>主講</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr"/>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="8" t="inlineStr"/>
-      <c r="K17" s="8" t="inlineStr"/>
-      <c r="L17" s="8" t="inlineStr"/>
-      <c r="M17" s="8" t="inlineStr"/>
-      <c r="O17" s="8" t="inlineStr"/>
-      <c r="P17" s="8" t="inlineStr"/>
-      <c r="Q17" s="8" t="inlineStr"/>
-      <c r="S17" s="8" t="inlineStr"/>
-      <c r="T17" s="8" t="inlineStr"/>
-      <c r="U17" s="8" t="inlineStr"/>
-      <c r="W17" s="8" t="inlineStr"/>
-      <c r="X17" s="8" t="inlineStr"/>
-      <c r="Y17" s="8" t="inlineStr"/>
-      <c r="AA17" s="8" t="inlineStr"/>
-      <c r="AB17" s="8" t="inlineStr"/>
-      <c r="AC17" s="8" t="inlineStr"/>
-      <c r="AE17" s="8" t="inlineStr"/>
-      <c r="AF17" s="8" t="inlineStr"/>
+      <c r="AE17" s="7" t="inlineStr"/>
+      <c r="AF17" s="7" t="inlineStr">
+        <is>
+          <t>月份</t>
+        </is>
+      </c>
       <c r="AG17" s="8" t="inlineStr"/>
+      <c r="AH17" s="8" t="inlineStr"/>
       <c r="AI17" s="8" t="inlineStr"/>
-      <c r="AJ17" s="8" t="inlineStr"/>
-      <c r="AK17" s="8" t="inlineStr"/>
+      <c r="AK17" s="7" t="inlineStr"/>
+      <c r="AL17" s="7" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
+      <c r="AM17" s="8" t="inlineStr"/>
+      <c r="AN17" s="8" t="inlineStr"/>
+      <c r="AO17" s="8" t="inlineStr"/>
+      <c r="AW17" s="7" t="inlineStr"/>
+      <c r="AX17" s="7" t="inlineStr">
+        <is>
+          <t>學年</t>
+        </is>
+      </c>
+      <c r="AY17" s="8" t="inlineStr"/>
+      <c r="AZ17" s="8" t="inlineStr"/>
+      <c r="BA17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr"/>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>兼任</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr"/>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="K18" s="6" t="inlineStr"/>
-      <c r="L18" s="6" t="inlineStr"/>
-      <c r="M18" s="6" t="inlineStr"/>
-      <c r="O18" s="6" t="inlineStr"/>
-      <c r="P18" s="6" t="inlineStr"/>
-      <c r="Q18" s="6" t="inlineStr"/>
-      <c r="S18" s="6" t="inlineStr"/>
-      <c r="T18" s="6" t="inlineStr"/>
-      <c r="U18" s="6" t="inlineStr"/>
-      <c r="W18" s="6" t="inlineStr"/>
-      <c r="X18" s="6" t="inlineStr"/>
-      <c r="Y18" s="6" t="inlineStr"/>
-      <c r="AA18" s="6" t="inlineStr"/>
-      <c r="AB18" s="6" t="inlineStr"/>
-      <c r="AC18" s="6" t="inlineStr"/>
-      <c r="AE18" s="6" t="inlineStr"/>
-      <c r="AF18" s="6" t="inlineStr"/>
+      <c r="AE18" s="5" t="inlineStr"/>
+      <c r="AF18" s="5" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
       <c r="AG18" s="6" t="inlineStr"/>
+      <c r="AH18" s="6" t="inlineStr"/>
       <c r="AI18" s="6" t="inlineStr"/>
-      <c r="AJ18" s="6" t="inlineStr"/>
-      <c r="AK18" s="6" t="inlineStr"/>
+      <c r="AK18" s="5" t="inlineStr"/>
+      <c r="AL18" s="5" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="AM18" s="6" t="inlineStr"/>
+      <c r="AN18" s="6" t="inlineStr"/>
+      <c r="AO18" s="6" t="inlineStr"/>
+      <c r="AW18" s="5" t="inlineStr"/>
+      <c r="AX18" s="5" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="AY18" s="6" t="inlineStr"/>
+      <c r="AZ18" s="6" t="inlineStr"/>
+      <c r="BA18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr"/>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>助教</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr"/>
-      <c r="D19" s="8" t="inlineStr"/>
-      <c r="E19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="8" t="inlineStr"/>
-      <c r="I19" s="8" t="inlineStr"/>
-      <c r="K19" s="8" t="inlineStr"/>
-      <c r="L19" s="8" t="inlineStr"/>
-      <c r="M19" s="8" t="inlineStr"/>
-      <c r="O19" s="8" t="inlineStr"/>
-      <c r="P19" s="8" t="inlineStr"/>
-      <c r="Q19" s="8" t="inlineStr"/>
-      <c r="S19" s="8" t="inlineStr"/>
-      <c r="T19" s="8" t="inlineStr"/>
-      <c r="U19" s="8" t="inlineStr"/>
-      <c r="W19" s="8" t="inlineStr"/>
-      <c r="X19" s="8" t="inlineStr"/>
-      <c r="Y19" s="8" t="inlineStr"/>
-      <c r="AA19" s="8" t="inlineStr"/>
-      <c r="AB19" s="8" t="inlineStr"/>
-      <c r="AC19" s="8" t="inlineStr"/>
-      <c r="AE19" s="8" t="inlineStr"/>
-      <c r="AF19" s="8" t="inlineStr"/>
-      <c r="AG19" s="8" t="inlineStr"/>
-      <c r="AI19" s="8" t="inlineStr"/>
-      <c r="AJ19" s="8" t="inlineStr"/>
-      <c r="AK19" s="8" t="inlineStr"/>
+      <c r="AK19" s="7" t="inlineStr"/>
+      <c r="AL19" s="7" t="inlineStr">
+        <is>
+          <t>月份</t>
+        </is>
+      </c>
+      <c r="AM19" s="8" t="inlineStr"/>
+      <c r="AN19" s="8" t="inlineStr"/>
+      <c r="AO19" s="8" t="inlineStr"/>
+      <c r="AW19" s="7" t="inlineStr"/>
+      <c r="AX19" s="7" t="inlineStr">
+        <is>
+          <t>月份</t>
+        </is>
+      </c>
+      <c r="AY19" s="8" t="inlineStr"/>
+      <c r="AZ19" s="8" t="inlineStr"/>
+      <c r="BA19" s="8" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr"/>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>協同</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
-      <c r="K20" s="6" t="inlineStr"/>
-      <c r="L20" s="6" t="inlineStr"/>
-      <c r="M20" s="6" t="inlineStr"/>
-      <c r="O20" s="6" t="inlineStr"/>
-      <c r="P20" s="6" t="inlineStr"/>
-      <c r="Q20" s="6" t="inlineStr"/>
-      <c r="S20" s="6" t="inlineStr"/>
-      <c r="T20" s="6" t="inlineStr"/>
-      <c r="U20" s="6" t="inlineStr"/>
-      <c r="W20" s="6" t="inlineStr"/>
-      <c r="X20" s="6" t="inlineStr"/>
-      <c r="Y20" s="6" t="inlineStr"/>
-      <c r="AA20" s="6" t="inlineStr"/>
-      <c r="AB20" s="6" t="inlineStr"/>
-      <c r="AC20" s="6" t="inlineStr"/>
-      <c r="AE20" s="6" t="inlineStr"/>
-      <c r="AF20" s="6" t="inlineStr"/>
-      <c r="AG20" s="6" t="inlineStr"/>
-      <c r="AI20" s="6" t="inlineStr"/>
-      <c r="AJ20" s="6" t="inlineStr"/>
-      <c r="AK20" s="6" t="inlineStr"/>
+      <c r="AK20" s="5" t="inlineStr"/>
+      <c r="AL20" s="5" t="inlineStr">
+        <is>
+          <t>週次</t>
+        </is>
+      </c>
+      <c r="AM20" s="6" t="inlineStr"/>
+      <c r="AN20" s="6" t="inlineStr"/>
+      <c r="AO20" s="6" t="inlineStr"/>
+      <c r="AW20" s="5" t="inlineStr"/>
+      <c r="AX20" s="5" t="inlineStr">
+        <is>
+          <t>週次</t>
+        </is>
+      </c>
+      <c r="AY20" s="6" t="inlineStr"/>
+      <c r="AZ20" s="6" t="inlineStr"/>
+      <c r="BA20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>專家</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr"/>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="G21" s="8" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
-      <c r="K21" s="8" t="inlineStr"/>
-      <c r="L21" s="8" t="inlineStr"/>
-      <c r="M21" s="8" t="inlineStr"/>
-      <c r="O21" s="8" t="inlineStr"/>
-      <c r="P21" s="8" t="inlineStr"/>
-      <c r="Q21" s="8" t="inlineStr"/>
-      <c r="S21" s="8" t="inlineStr"/>
-      <c r="T21" s="8" t="inlineStr"/>
-      <c r="U21" s="8" t="inlineStr"/>
-      <c r="W21" s="8" t="inlineStr"/>
-      <c r="X21" s="8" t="inlineStr"/>
-      <c r="Y21" s="8" t="inlineStr"/>
-      <c r="AA21" s="8" t="inlineStr"/>
-      <c r="AB21" s="8" t="inlineStr"/>
-      <c r="AC21" s="8" t="inlineStr"/>
-      <c r="AE21" s="8" t="inlineStr"/>
-      <c r="AF21" s="8" t="inlineStr"/>
-      <c r="AG21" s="8" t="inlineStr"/>
-      <c r="AI21" s="8" t="inlineStr"/>
-      <c r="AJ21" s="8" t="inlineStr"/>
-      <c r="AK21" s="8" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr"/>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>教師</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr"/>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
-      <c r="K22" s="6" t="inlineStr"/>
-      <c r="L22" s="6" t="inlineStr"/>
-      <c r="M22" s="6" t="inlineStr"/>
-      <c r="O22" s="6" t="inlineStr"/>
-      <c r="P22" s="6" t="inlineStr"/>
-      <c r="Q22" s="6" t="inlineStr"/>
-      <c r="S22" s="6" t="inlineStr"/>
-      <c r="T22" s="6" t="inlineStr"/>
-      <c r="U22" s="6" t="inlineStr"/>
-      <c r="W22" s="6" t="inlineStr"/>
-      <c r="X22" s="6" t="inlineStr"/>
-      <c r="Y22" s="6" t="inlineStr"/>
-      <c r="AA22" s="6" t="inlineStr"/>
-      <c r="AB22" s="6" t="inlineStr"/>
-      <c r="AC22" s="6" t="inlineStr"/>
-      <c r="AE22" s="6" t="inlineStr"/>
-      <c r="AF22" s="6" t="inlineStr"/>
-      <c r="AG22" s="6" t="inlineStr"/>
-      <c r="AI22" s="6" t="inlineStr"/>
-      <c r="AJ22" s="6" t="inlineStr"/>
-      <c r="AK22" s="6" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="inlineStr"/>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>教授</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr"/>
-      <c r="D23" s="8" t="inlineStr"/>
-      <c r="E23" s="8" t="inlineStr"/>
-      <c r="G23" s="8" t="inlineStr"/>
-      <c r="H23" s="8" t="inlineStr"/>
-      <c r="I23" s="8" t="inlineStr"/>
-      <c r="K23" s="8" t="inlineStr"/>
-      <c r="L23" s="8" t="inlineStr"/>
-      <c r="M23" s="8" t="inlineStr"/>
-      <c r="O23" s="8" t="inlineStr"/>
-      <c r="P23" s="8" t="inlineStr"/>
-      <c r="Q23" s="8" t="inlineStr"/>
-      <c r="S23" s="8" t="inlineStr"/>
-      <c r="T23" s="8" t="inlineStr"/>
-      <c r="U23" s="8" t="inlineStr"/>
-      <c r="W23" s="8" t="inlineStr"/>
-      <c r="X23" s="8" t="inlineStr"/>
-      <c r="Y23" s="8" t="inlineStr"/>
-      <c r="AA23" s="8" t="inlineStr"/>
-      <c r="AB23" s="8" t="inlineStr"/>
-      <c r="AC23" s="8" t="inlineStr"/>
-      <c r="AE23" s="8" t="inlineStr"/>
-      <c r="AF23" s="8" t="inlineStr"/>
-      <c r="AG23" s="8" t="inlineStr"/>
-      <c r="AI23" s="8" t="inlineStr"/>
-      <c r="AJ23" s="8" t="inlineStr"/>
-      <c r="AK23" s="8" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr"/>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>老師</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="inlineStr"/>
-      <c r="D24" s="6" t="inlineStr"/>
-      <c r="E24" s="6" t="inlineStr"/>
-      <c r="G24" s="6" t="inlineStr"/>
-      <c r="H24" s="6" t="inlineStr"/>
-      <c r="I24" s="6" t="inlineStr"/>
-      <c r="K24" s="6" t="inlineStr"/>
-      <c r="L24" s="6" t="inlineStr"/>
-      <c r="M24" s="6" t="inlineStr"/>
-      <c r="O24" s="6" t="inlineStr"/>
-      <c r="P24" s="6" t="inlineStr"/>
-      <c r="Q24" s="6" t="inlineStr"/>
-      <c r="S24" s="6" t="inlineStr"/>
-      <c r="T24" s="6" t="inlineStr"/>
-      <c r="U24" s="6" t="inlineStr"/>
-      <c r="W24" s="6" t="inlineStr"/>
-      <c r="X24" s="6" t="inlineStr"/>
-      <c r="Y24" s="6" t="inlineStr"/>
-      <c r="AA24" s="6" t="inlineStr"/>
-      <c r="AB24" s="6" t="inlineStr"/>
-      <c r="AC24" s="6" t="inlineStr"/>
-      <c r="AE24" s="6" t="inlineStr"/>
-      <c r="AF24" s="6" t="inlineStr"/>
-      <c r="AG24" s="6" t="inlineStr"/>
-      <c r="AI24" s="6" t="inlineStr"/>
-      <c r="AJ24" s="6" t="inlineStr"/>
-      <c r="AK24" s="6" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr"/>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>講師</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr"/>
-      <c r="D25" s="8" t="inlineStr"/>
-      <c r="E25" s="8" t="inlineStr"/>
-      <c r="G25" s="8" t="inlineStr"/>
-      <c r="H25" s="8" t="inlineStr"/>
-      <c r="I25" s="8" t="inlineStr"/>
-      <c r="K25" s="8" t="inlineStr"/>
-      <c r="L25" s="8" t="inlineStr"/>
-      <c r="M25" s="8" t="inlineStr"/>
-      <c r="O25" s="8" t="inlineStr"/>
-      <c r="P25" s="8" t="inlineStr"/>
-      <c r="Q25" s="8" t="inlineStr"/>
-      <c r="S25" s="8" t="inlineStr"/>
-      <c r="T25" s="8" t="inlineStr"/>
-      <c r="U25" s="8" t="inlineStr"/>
-      <c r="W25" s="8" t="inlineStr"/>
-      <c r="X25" s="8" t="inlineStr"/>
-      <c r="Y25" s="8" t="inlineStr"/>
-      <c r="AA25" s="8" t="inlineStr"/>
-      <c r="AB25" s="8" t="inlineStr"/>
-      <c r="AC25" s="8" t="inlineStr"/>
-      <c r="AE25" s="8" t="inlineStr"/>
-      <c r="AF25" s="8" t="inlineStr"/>
-      <c r="AG25" s="8" t="inlineStr"/>
-      <c r="AI25" s="8" t="inlineStr"/>
-      <c r="AJ25" s="8" t="inlineStr"/>
-      <c r="AK25" s="8" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="inlineStr"/>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>輔導員</t>
-        </is>
-      </c>
-      <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="inlineStr"/>
-      <c r="K26" s="6" t="inlineStr"/>
-      <c r="L26" s="6" t="inlineStr"/>
-      <c r="M26" s="6" t="inlineStr"/>
-      <c r="O26" s="6" t="inlineStr"/>
-      <c r="P26" s="6" t="inlineStr"/>
-      <c r="Q26" s="6" t="inlineStr"/>
-      <c r="S26" s="6" t="inlineStr"/>
-      <c r="T26" s="6" t="inlineStr"/>
-      <c r="U26" s="6" t="inlineStr"/>
-      <c r="W26" s="6" t="inlineStr"/>
-      <c r="X26" s="6" t="inlineStr"/>
-      <c r="Y26" s="6" t="inlineStr"/>
-      <c r="AA26" s="6" t="inlineStr"/>
-      <c r="AB26" s="6" t="inlineStr"/>
-      <c r="AC26" s="6" t="inlineStr"/>
-      <c r="AE26" s="6" t="inlineStr"/>
-      <c r="AF26" s="6" t="inlineStr"/>
-      <c r="AG26" s="6" t="inlineStr"/>
-      <c r="AI26" s="6" t="inlineStr"/>
-      <c r="AJ26" s="6" t="inlineStr"/>
-      <c r="AK26" s="6" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr"/>
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>顧問</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr"/>
-      <c r="D27" s="8" t="inlineStr"/>
-      <c r="E27" s="8" t="inlineStr"/>
-      <c r="G27" s="8" t="inlineStr"/>
-      <c r="H27" s="8" t="inlineStr"/>
-      <c r="I27" s="8" t="inlineStr"/>
-      <c r="K27" s="8" t="inlineStr"/>
-      <c r="L27" s="8" t="inlineStr"/>
-      <c r="M27" s="8" t="inlineStr"/>
-      <c r="O27" s="8" t="inlineStr"/>
-      <c r="P27" s="8" t="inlineStr"/>
-      <c r="Q27" s="8" t="inlineStr"/>
-      <c r="S27" s="8" t="inlineStr"/>
-      <c r="T27" s="8" t="inlineStr"/>
-      <c r="U27" s="8" t="inlineStr"/>
-      <c r="W27" s="8" t="inlineStr"/>
-      <c r="X27" s="8" t="inlineStr"/>
-      <c r="Y27" s="8" t="inlineStr"/>
-      <c r="AA27" s="8" t="inlineStr"/>
-      <c r="AB27" s="8" t="inlineStr"/>
-      <c r="AC27" s="8" t="inlineStr"/>
-      <c r="AE27" s="8" t="inlineStr"/>
-      <c r="AF27" s="8" t="inlineStr"/>
-      <c r="AG27" s="8" t="inlineStr"/>
-      <c r="AI27" s="8" t="inlineStr"/>
-      <c r="AJ27" s="8" t="inlineStr"/>
-      <c r="AK27" s="8" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>時間相關</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>學年</t>
-        </is>
-      </c>
-      <c r="C28" s="6" t="inlineStr"/>
-      <c r="D28" s="6" t="inlineStr"/>
-      <c r="E28" s="6" t="inlineStr"/>
-      <c r="G28" s="6" t="inlineStr"/>
-      <c r="H28" s="6" t="inlineStr"/>
-      <c r="I28" s="6" t="inlineStr"/>
-      <c r="K28" s="6" t="inlineStr"/>
-      <c r="L28" s="6" t="inlineStr"/>
-      <c r="M28" s="6" t="inlineStr"/>
-      <c r="O28" s="6" t="inlineStr"/>
-      <c r="P28" s="6" t="inlineStr"/>
-      <c r="Q28" s="6" t="inlineStr"/>
-      <c r="S28" s="6" t="inlineStr"/>
-      <c r="T28" s="6" t="inlineStr"/>
-      <c r="U28" s="6" t="inlineStr"/>
-      <c r="W28" s="6" t="inlineStr"/>
-      <c r="X28" s="6" t="inlineStr"/>
-      <c r="Y28" s="6" t="inlineStr"/>
-      <c r="AA28" s="6" t="inlineStr"/>
-      <c r="AB28" s="6" t="inlineStr"/>
-      <c r="AC28" s="6" t="inlineStr"/>
-      <c r="AE28" s="6" t="inlineStr"/>
-      <c r="AF28" s="6" t="inlineStr"/>
-      <c r="AG28" s="6" t="inlineStr"/>
-      <c r="AI28" s="6" t="inlineStr"/>
-      <c r="AJ28" s="6" t="inlineStr"/>
-      <c r="AK28" s="6" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr"/>
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>學期</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr"/>
-      <c r="D29" s="8" t="inlineStr"/>
-      <c r="E29" s="8" t="inlineStr"/>
-      <c r="G29" s="8" t="inlineStr"/>
-      <c r="H29" s="8" t="inlineStr"/>
-      <c r="I29" s="8" t="inlineStr"/>
-      <c r="K29" s="8" t="inlineStr"/>
-      <c r="L29" s="8" t="inlineStr"/>
-      <c r="M29" s="8" t="inlineStr"/>
-      <c r="O29" s="8" t="inlineStr"/>
-      <c r="P29" s="8" t="inlineStr"/>
-      <c r="Q29" s="8" t="inlineStr"/>
-      <c r="S29" s="8" t="inlineStr"/>
-      <c r="T29" s="8" t="inlineStr"/>
-      <c r="U29" s="8" t="inlineStr"/>
-      <c r="W29" s="8" t="inlineStr"/>
-      <c r="X29" s="8" t="inlineStr"/>
-      <c r="Y29" s="8" t="inlineStr"/>
-      <c r="AA29" s="8" t="inlineStr"/>
-      <c r="AB29" s="8" t="inlineStr"/>
-      <c r="AC29" s="8" t="inlineStr"/>
-      <c r="AE29" s="8" t="inlineStr"/>
-      <c r="AF29" s="8" t="inlineStr"/>
-      <c r="AG29" s="8" t="inlineStr"/>
-      <c r="AI29" s="8" t="inlineStr"/>
-      <c r="AJ29" s="8" t="inlineStr"/>
-      <c r="AK29" s="8" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr"/>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>年度</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr"/>
-      <c r="I30" s="6" t="inlineStr"/>
-      <c r="K30" s="6" t="inlineStr"/>
-      <c r="L30" s="6" t="inlineStr"/>
-      <c r="M30" s="6" t="inlineStr"/>
-      <c r="O30" s="6" t="inlineStr"/>
-      <c r="P30" s="6" t="inlineStr"/>
-      <c r="Q30" s="6" t="inlineStr"/>
-      <c r="S30" s="6" t="inlineStr"/>
-      <c r="T30" s="6" t="inlineStr"/>
-      <c r="U30" s="6" t="inlineStr"/>
-      <c r="W30" s="6" t="inlineStr"/>
-      <c r="X30" s="6" t="inlineStr"/>
-      <c r="Y30" s="6" t="inlineStr"/>
-      <c r="AA30" s="6" t="inlineStr"/>
-      <c r="AB30" s="6" t="inlineStr"/>
-      <c r="AC30" s="6" t="inlineStr"/>
-      <c r="AE30" s="6" t="inlineStr"/>
-      <c r="AF30" s="6" t="inlineStr"/>
-      <c r="AG30" s="6" t="inlineStr"/>
-      <c r="AI30" s="6" t="inlineStr"/>
-      <c r="AJ30" s="6" t="inlineStr"/>
-      <c r="AK30" s="6" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr"/>
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>截止</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr"/>
-      <c r="D31" s="8" t="inlineStr"/>
-      <c r="E31" s="8" t="inlineStr"/>
-      <c r="G31" s="8" t="inlineStr"/>
-      <c r="H31" s="8" t="inlineStr"/>
-      <c r="I31" s="8" t="inlineStr"/>
-      <c r="K31" s="8" t="inlineStr"/>
-      <c r="L31" s="8" t="inlineStr"/>
-      <c r="M31" s="8" t="inlineStr"/>
-      <c r="O31" s="8" t="inlineStr"/>
-      <c r="P31" s="8" t="inlineStr"/>
-      <c r="Q31" s="8" t="inlineStr"/>
-      <c r="S31" s="8" t="inlineStr"/>
-      <c r="T31" s="8" t="inlineStr"/>
-      <c r="U31" s="8" t="inlineStr"/>
-      <c r="W31" s="8" t="inlineStr"/>
-      <c r="X31" s="8" t="inlineStr"/>
-      <c r="Y31" s="8" t="inlineStr"/>
-      <c r="AA31" s="8" t="inlineStr"/>
-      <c r="AB31" s="8" t="inlineStr"/>
-      <c r="AC31" s="8" t="inlineStr"/>
-      <c r="AE31" s="8" t="inlineStr"/>
-      <c r="AF31" s="8" t="inlineStr"/>
-      <c r="AG31" s="8" t="inlineStr"/>
-      <c r="AI31" s="8" t="inlineStr"/>
-      <c r="AJ31" s="8" t="inlineStr"/>
-      <c r="AK31" s="8" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr"/>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>排程</t>
-        </is>
-      </c>
-      <c r="C32" s="6" t="inlineStr"/>
-      <c r="D32" s="6" t="inlineStr"/>
-      <c r="E32" s="6" t="inlineStr"/>
-      <c r="G32" s="6" t="inlineStr"/>
-      <c r="H32" s="6" t="inlineStr"/>
-      <c r="I32" s="6" t="inlineStr"/>
-      <c r="K32" s="6" t="inlineStr"/>
-      <c r="L32" s="6" t="inlineStr"/>
-      <c r="M32" s="6" t="inlineStr"/>
-      <c r="O32" s="6" t="inlineStr"/>
-      <c r="P32" s="6" t="inlineStr"/>
-      <c r="Q32" s="6" t="inlineStr"/>
-      <c r="S32" s="6" t="inlineStr"/>
-      <c r="T32" s="6" t="inlineStr"/>
-      <c r="U32" s="6" t="inlineStr"/>
-      <c r="W32" s="6" t="inlineStr"/>
-      <c r="X32" s="6" t="inlineStr"/>
-      <c r="Y32" s="6" t="inlineStr"/>
-      <c r="AA32" s="6" t="inlineStr"/>
-      <c r="AB32" s="6" t="inlineStr"/>
-      <c r="AC32" s="6" t="inlineStr"/>
-      <c r="AE32" s="6" t="inlineStr"/>
-      <c r="AF32" s="6" t="inlineStr"/>
-      <c r="AG32" s="6" t="inlineStr"/>
-      <c r="AI32" s="6" t="inlineStr"/>
-      <c r="AJ32" s="6" t="inlineStr"/>
-      <c r="AK32" s="6" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr"/>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr"/>
-      <c r="D33" s="8" t="inlineStr"/>
-      <c r="E33" s="8" t="inlineStr"/>
-      <c r="G33" s="8" t="inlineStr"/>
-      <c r="H33" s="8" t="inlineStr"/>
-      <c r="I33" s="8" t="inlineStr"/>
-      <c r="K33" s="8" t="inlineStr"/>
-      <c r="L33" s="8" t="inlineStr"/>
-      <c r="M33" s="8" t="inlineStr"/>
-      <c r="O33" s="8" t="inlineStr"/>
-      <c r="P33" s="8" t="inlineStr"/>
-      <c r="Q33" s="8" t="inlineStr"/>
-      <c r="S33" s="8" t="inlineStr"/>
-      <c r="T33" s="8" t="inlineStr"/>
-      <c r="U33" s="8" t="inlineStr"/>
-      <c r="W33" s="8" t="inlineStr"/>
-      <c r="X33" s="8" t="inlineStr"/>
-      <c r="Y33" s="8" t="inlineStr"/>
-      <c r="AA33" s="8" t="inlineStr"/>
-      <c r="AB33" s="8" t="inlineStr"/>
-      <c r="AC33" s="8" t="inlineStr"/>
-      <c r="AE33" s="8" t="inlineStr"/>
-      <c r="AF33" s="8" t="inlineStr"/>
-      <c r="AG33" s="8" t="inlineStr"/>
-      <c r="AI33" s="8" t="inlineStr"/>
-      <c r="AJ33" s="8" t="inlineStr"/>
-      <c r="AK33" s="8" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr"/>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>時間</t>
-        </is>
-      </c>
-      <c r="C34" s="6" t="inlineStr"/>
-      <c r="D34" s="6" t="inlineStr"/>
-      <c r="E34" s="6" t="inlineStr"/>
-      <c r="G34" s="6" t="inlineStr"/>
-      <c r="H34" s="6" t="inlineStr"/>
-      <c r="I34" s="6" t="inlineStr"/>
-      <c r="K34" s="6" t="inlineStr"/>
-      <c r="L34" s="6" t="inlineStr"/>
-      <c r="M34" s="6" t="inlineStr"/>
-      <c r="O34" s="6" t="inlineStr"/>
-      <c r="P34" s="6" t="inlineStr"/>
-      <c r="Q34" s="6" t="inlineStr"/>
-      <c r="S34" s="6" t="inlineStr"/>
-      <c r="T34" s="6" t="inlineStr"/>
-      <c r="U34" s="6" t="inlineStr"/>
-      <c r="W34" s="6" t="inlineStr"/>
-      <c r="X34" s="6" t="inlineStr"/>
-      <c r="Y34" s="6" t="inlineStr"/>
-      <c r="AA34" s="6" t="inlineStr"/>
-      <c r="AB34" s="6" t="inlineStr"/>
-      <c r="AC34" s="6" t="inlineStr"/>
-      <c r="AE34" s="6" t="inlineStr"/>
-      <c r="AF34" s="6" t="inlineStr"/>
-      <c r="AG34" s="6" t="inlineStr"/>
-      <c r="AI34" s="6" t="inlineStr"/>
-      <c r="AJ34" s="6" t="inlineStr"/>
-      <c r="AK34" s="6" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr"/>
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t>月份</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr"/>
-      <c r="D35" s="8" t="inlineStr"/>
-      <c r="E35" s="8" t="inlineStr"/>
-      <c r="G35" s="8" t="inlineStr"/>
-      <c r="H35" s="8" t="inlineStr"/>
-      <c r="I35" s="8" t="inlineStr"/>
-      <c r="K35" s="8" t="inlineStr"/>
-      <c r="L35" s="8" t="inlineStr"/>
-      <c r="M35" s="8" t="inlineStr"/>
-      <c r="O35" s="8" t="inlineStr"/>
-      <c r="P35" s="8" t="inlineStr"/>
-      <c r="Q35" s="8" t="inlineStr"/>
-      <c r="S35" s="8" t="inlineStr"/>
-      <c r="T35" s="8" t="inlineStr"/>
-      <c r="U35" s="8" t="inlineStr"/>
-      <c r="W35" s="8" t="inlineStr"/>
-      <c r="X35" s="8" t="inlineStr"/>
-      <c r="Y35" s="8" t="inlineStr"/>
-      <c r="AA35" s="8" t="inlineStr"/>
-      <c r="AB35" s="8" t="inlineStr"/>
-      <c r="AC35" s="8" t="inlineStr"/>
-      <c r="AE35" s="8" t="inlineStr"/>
-      <c r="AF35" s="8" t="inlineStr"/>
-      <c r="AG35" s="8" t="inlineStr"/>
-      <c r="AI35" s="8" t="inlineStr"/>
-      <c r="AJ35" s="8" t="inlineStr"/>
-      <c r="AK35" s="8" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="inlineStr"/>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>期間</t>
-        </is>
-      </c>
-      <c r="C36" s="6" t="inlineStr"/>
-      <c r="D36" s="6" t="inlineStr"/>
-      <c r="E36" s="6" t="inlineStr"/>
-      <c r="G36" s="6" t="inlineStr"/>
-      <c r="H36" s="6" t="inlineStr"/>
-      <c r="I36" s="6" t="inlineStr"/>
-      <c r="K36" s="6" t="inlineStr"/>
-      <c r="L36" s="6" t="inlineStr"/>
-      <c r="M36" s="6" t="inlineStr"/>
-      <c r="O36" s="6" t="inlineStr"/>
-      <c r="P36" s="6" t="inlineStr"/>
-      <c r="Q36" s="6" t="inlineStr"/>
-      <c r="S36" s="6" t="inlineStr"/>
-      <c r="T36" s="6" t="inlineStr"/>
-      <c r="U36" s="6" t="inlineStr"/>
-      <c r="W36" s="6" t="inlineStr"/>
-      <c r="X36" s="6" t="inlineStr"/>
-      <c r="Y36" s="6" t="inlineStr"/>
-      <c r="AA36" s="6" t="inlineStr"/>
-      <c r="AB36" s="6" t="inlineStr"/>
-      <c r="AC36" s="6" t="inlineStr"/>
-      <c r="AE36" s="6" t="inlineStr"/>
-      <c r="AF36" s="6" t="inlineStr"/>
-      <c r="AG36" s="6" t="inlineStr"/>
-      <c r="AI36" s="6" t="inlineStr"/>
-      <c r="AJ36" s="6" t="inlineStr"/>
-      <c r="AK36" s="6" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="inlineStr"/>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="AK21" s="7" t="inlineStr"/>
+      <c r="AL21" s="7" t="inlineStr">
         <is>
           <t>節次</t>
         </is>
       </c>
-      <c r="C37" s="8" t="inlineStr"/>
-      <c r="D37" s="8" t="inlineStr"/>
-      <c r="E37" s="8" t="inlineStr"/>
-      <c r="G37" s="8" t="inlineStr"/>
-      <c r="H37" s="8" t="inlineStr"/>
-      <c r="I37" s="8" t="inlineStr"/>
-      <c r="K37" s="8" t="inlineStr"/>
-      <c r="L37" s="8" t="inlineStr"/>
-      <c r="M37" s="8" t="inlineStr"/>
-      <c r="O37" s="8" t="inlineStr"/>
-      <c r="P37" s="8" t="inlineStr"/>
-      <c r="Q37" s="8" t="inlineStr"/>
-      <c r="S37" s="8" t="inlineStr"/>
-      <c r="T37" s="8" t="inlineStr"/>
-      <c r="U37" s="8" t="inlineStr"/>
-      <c r="W37" s="8" t="inlineStr"/>
-      <c r="X37" s="8" t="inlineStr"/>
-      <c r="Y37" s="8" t="inlineStr"/>
-      <c r="AA37" s="8" t="inlineStr"/>
-      <c r="AB37" s="8" t="inlineStr"/>
-      <c r="AC37" s="8" t="inlineStr"/>
-      <c r="AE37" s="8" t="inlineStr"/>
-      <c r="AF37" s="8" t="inlineStr"/>
-      <c r="AG37" s="8" t="inlineStr"/>
-      <c r="AI37" s="8" t="inlineStr"/>
-      <c r="AJ37" s="8" t="inlineStr"/>
-      <c r="AK37" s="8" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="inlineStr"/>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>結束</t>
-        </is>
-      </c>
-      <c r="C38" s="6" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="inlineStr"/>
-      <c r="G38" s="6" t="inlineStr"/>
-      <c r="H38" s="6" t="inlineStr"/>
-      <c r="I38" s="6" t="inlineStr"/>
-      <c r="K38" s="6" t="inlineStr"/>
-      <c r="L38" s="6" t="inlineStr"/>
-      <c r="M38" s="6" t="inlineStr"/>
-      <c r="O38" s="6" t="inlineStr"/>
-      <c r="P38" s="6" t="inlineStr"/>
-      <c r="Q38" s="6" t="inlineStr"/>
-      <c r="S38" s="6" t="inlineStr"/>
-      <c r="T38" s="6" t="inlineStr"/>
-      <c r="U38" s="6" t="inlineStr"/>
-      <c r="W38" s="6" t="inlineStr"/>
-      <c r="X38" s="6" t="inlineStr"/>
-      <c r="Y38" s="6" t="inlineStr"/>
-      <c r="AA38" s="6" t="inlineStr"/>
-      <c r="AB38" s="6" t="inlineStr"/>
-      <c r="AC38" s="6" t="inlineStr"/>
-      <c r="AE38" s="6" t="inlineStr"/>
-      <c r="AF38" s="6" t="inlineStr"/>
-      <c r="AG38" s="6" t="inlineStr"/>
-      <c r="AI38" s="6" t="inlineStr"/>
-      <c r="AJ38" s="6" t="inlineStr"/>
-      <c r="AK38" s="6" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="inlineStr"/>
-      <c r="B39" s="7" t="inlineStr">
-        <is>
-          <t>週次</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr"/>
-      <c r="D39" s="8" t="inlineStr"/>
-      <c r="E39" s="8" t="inlineStr"/>
-      <c r="G39" s="8" t="inlineStr"/>
-      <c r="H39" s="8" t="inlineStr"/>
-      <c r="I39" s="8" t="inlineStr"/>
-      <c r="K39" s="8" t="inlineStr"/>
-      <c r="L39" s="8" t="inlineStr"/>
-      <c r="M39" s="8" t="inlineStr"/>
-      <c r="O39" s="8" t="inlineStr"/>
-      <c r="P39" s="8" t="inlineStr"/>
-      <c r="Q39" s="8" t="inlineStr"/>
-      <c r="S39" s="8" t="inlineStr"/>
-      <c r="T39" s="8" t="inlineStr"/>
-      <c r="U39" s="8" t="inlineStr"/>
-      <c r="W39" s="8" t="inlineStr"/>
-      <c r="X39" s="8" t="inlineStr"/>
-      <c r="Y39" s="8" t="inlineStr"/>
-      <c r="AA39" s="8" t="inlineStr"/>
-      <c r="AB39" s="8" t="inlineStr"/>
-      <c r="AC39" s="8" t="inlineStr"/>
-      <c r="AE39" s="8" t="inlineStr"/>
-      <c r="AF39" s="8" t="inlineStr"/>
-      <c r="AG39" s="8" t="inlineStr"/>
-      <c r="AI39" s="8" t="inlineStr"/>
-      <c r="AJ39" s="8" t="inlineStr"/>
-      <c r="AK39" s="8" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="inlineStr"/>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="C40" s="6" t="inlineStr"/>
-      <c r="D40" s="6" t="inlineStr"/>
-      <c r="E40" s="6" t="inlineStr"/>
-      <c r="G40" s="6" t="inlineStr"/>
-      <c r="H40" s="6" t="inlineStr"/>
-      <c r="I40" s="6" t="inlineStr"/>
-      <c r="K40" s="6" t="inlineStr"/>
-      <c r="L40" s="6" t="inlineStr"/>
-      <c r="M40" s="6" t="inlineStr"/>
-      <c r="O40" s="6" t="inlineStr"/>
-      <c r="P40" s="6" t="inlineStr"/>
-      <c r="Q40" s="6" t="inlineStr"/>
-      <c r="S40" s="6" t="inlineStr"/>
-      <c r="T40" s="6" t="inlineStr"/>
-      <c r="U40" s="6" t="inlineStr"/>
-      <c r="W40" s="6" t="inlineStr"/>
-      <c r="X40" s="6" t="inlineStr"/>
-      <c r="Y40" s="6" t="inlineStr"/>
-      <c r="AA40" s="6" t="inlineStr"/>
-      <c r="AB40" s="6" t="inlineStr"/>
-      <c r="AC40" s="6" t="inlineStr"/>
-      <c r="AE40" s="6" t="inlineStr"/>
-      <c r="AF40" s="6" t="inlineStr"/>
-      <c r="AG40" s="6" t="inlineStr"/>
-      <c r="AI40" s="6" t="inlineStr"/>
-      <c r="AJ40" s="6" t="inlineStr"/>
-      <c r="AK40" s="6" t="inlineStr"/>
+      <c r="AM21" s="8" t="inlineStr"/>
+      <c r="AN21" s="8" t="inlineStr"/>
+      <c r="AO21" s="8" t="inlineStr"/>
+      <c r="AW21" s="7" t="inlineStr"/>
+      <c r="AX21" s="7" t="inlineStr">
+        <is>
+          <t>節次</t>
+        </is>
+      </c>
+      <c r="AY21" s="8" t="inlineStr"/>
+      <c r="AZ21" s="8" t="inlineStr"/>
+      <c r="BA21" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:BA1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2182,11 +2221,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2205,11 +2244,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2228,11 +2267,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2251,11 +2290,11 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2274,11 +2313,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2297,11 +2336,11 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2320,11 +2359,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2343,11 +2382,11 @@
         <v>3</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2366,11 +2405,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>敏感詞較少</t>
         </is>
       </c>
     </row>
@@ -2389,11 +2428,11 @@
         <v>3</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="E13" s="13" t="inlineStr">
         <is>
-          <t>平均每語言 31 個敏感詞</t>
+          <t>平均每語言 13 個敏感詞</t>
         </is>
       </c>
     </row>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250609 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C97FDD-610B-B445-B752-F6C47E4F13E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF9924-F9B6-5A41-8D84-7F48F079E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="-20260" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrase_comparison" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="79">
   <si>
     <t>en_US</t>
   </si>
@@ -212,31 +212,67 @@
     <t>5. 修復說明：現在所有語言使用統一的敏感詞字典，確保數量一致</t>
   </si>
   <si>
-    <t>student</t>
+    <t>學生</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>employee</t>
+    <t>教務人員</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>登入</t>
+    <t>教務</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>login</t>
+    <t>這是對的</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>員工</t>
+    <t>教務人</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>人員</t>
+    <t>三字錯的</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>學生</t>
+    <t>2字錯的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2字錯的企業</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是對的企業</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三字錯的企業</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2字錯的公部門</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是對的公部門</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三字錯的公部門</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2字錯的培訓機構</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是對的培訓機構</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三字錯的培訓機構</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +293,6 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -265,7 +300,6 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -273,34 +307,29 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -309,6 +338,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -355,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -393,22 +428,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,7 +468,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,15 +776,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="53" width="12" customWidth="1"/>
+    <col min="1" max="38" width="12" customWidth="1"/>
+    <col min="39" max="39" width="19.59765625" customWidth="1"/>
+    <col min="40" max="41" width="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="53" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="20">
@@ -964,14 +994,12 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" s="3" t="s">
@@ -1025,15 +1053,9 @@
       <c r="AL3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AM3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
       <c r="AQ3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1046,8 +1068,8 @@
       <c r="AW3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AX3" s="3" t="s">
-        <v>15</v>
+      <c r="AX3" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
@@ -1055,7 +1077,9 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1118,7 +1142,9 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1181,7 +1207,9 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1244,7 +1272,9 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1307,7 +1337,9 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1370,7 +1402,9 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1432,8 +1466,12 @@
       <c r="BA9" s="4"/>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1485,12 +1523,18 @@
       <c r="AK10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AL10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
+      <c r="AL10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="AQ10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1503,16 +1547,20 @@
       <c r="AW10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AX10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY10" s="6"/>
+      <c r="AX10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY10" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="AZ10" s="6"/>
       <c r="BA10" s="6"/>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1552,12 +1600,18 @@
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
+      <c r="AL11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3" t="s">
         <v>24</v>
@@ -1566,16 +1620,20 @@
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AW11" s="3"/>
-      <c r="AX11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY11" s="4"/>
+      <c r="AX11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY11" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1615,12 +1673,18 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AK12" s="5"/>
-      <c r="AL12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
+      <c r="AL12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5" t="s">
         <v>25</v>
@@ -1629,16 +1693,20 @@
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AW12" s="5"/>
-      <c r="AX12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY12" s="6"/>
+      <c r="AX12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY12" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1701,7 +1769,9 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1764,7 +1834,9 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1827,7 +1899,9 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1889,8 +1963,12 @@
       <c r="BA16" s="6"/>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1969,7 +2047,9 @@
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2032,7 +2112,9 @@
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2095,7 +2177,9 @@
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2158,7 +2242,9 @@
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2221,7 +2307,9 @@
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2284,7 +2372,9 @@
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2344,14 +2434,6 @@
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="AL24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250609 detection_terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250612 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF9924-F9B6-5A41-8D84-7F48F079E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27DE6D-94C3-2A40-9D08-C4BC3E9412F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrase_comparison" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
   <si>
     <t>en_US</t>
   </si>
@@ -212,67 +212,59 @@
     <t>5. 修復說明：現在所有語言使用統一的敏感詞字典，確保數量一致</t>
   </si>
   <si>
-    <t>學生</t>
+    <t>學員</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>教務人員</t>
+    <t>期別</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>教務</t>
+    <t>講師</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>這是對的</t>
+    <t>教師</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>教務人</t>
+    <t>年級</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>三字錯的</t>
+    <t>部門</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2字錯的</t>
+    <t>學期</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2字錯的企業</t>
+    <t>單位相關</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>這是對的企業</t>
+    <t>院系</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>三字錯的企業</t>
+    <t>單位</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2字錯的公部門</t>
+    <t>語言</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>這是對的公部門</t>
+    <t>設置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>三字錯的公部門</t>
+    <t>設定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2字錯的培訓機構</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>這是對的培訓機構</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三字錯的培訓機構</t>
+    <t>系所</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +285,7 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -300,6 +293,7 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -307,29 +301,34 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -338,12 +337,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -390,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -426,6 +419,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -464,16 +468,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -778,82 +780,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="38" width="12" customWidth="1"/>
-    <col min="39" max="39" width="19.59765625" customWidth="1"/>
-    <col min="40" max="41" width="16" bestFit="1" customWidth="1"/>
-    <col min="42" max="53" width="12" customWidth="1"/>
+    <col min="1" max="53" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="20">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="S1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="Y1" s="13" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="Y1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AE1" s="13" t="s">
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AE1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AK1" s="13" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AK1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AQ1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AW1" s="13" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AW1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
     </row>
     <row r="2" spans="1:53" ht="15">
       <c r="A2" s="1" t="s">
@@ -1053,7 +1052,9 @@
       <c r="AL3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AM3" s="4"/>
+      <c r="AM3" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
       <c r="AQ3" s="3" t="s">
@@ -1068,8 +1069,8 @@
       <c r="AW3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AX3" s="15" t="s">
-        <v>63</v>
+      <c r="AX3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
@@ -1119,9 +1120,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AK4" s="5"/>
-      <c r="AL4" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AL4" s="5"/>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
@@ -1183,11 +1182,15 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM5" s="4"/>
+      <c r="AK5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AQ5" s="3"/>
@@ -1248,11 +1251,13 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM6" s="6"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
       <c r="AQ6" s="5"/>
@@ -1314,9 +1319,7 @@
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="AL7" s="3"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
@@ -1378,11 +1381,15 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM8" s="6"/>
+      <c r="AK8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
       <c r="AQ8" s="5"/>
@@ -1445,9 +1452,11 @@
       <c r="AI9" s="4"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM9" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AQ9" s="3"/>
@@ -1520,21 +1529,14 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AK10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="AL10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
       <c r="AQ10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1547,12 +1549,10 @@
       <c r="AW10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AX10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY10" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="AX10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY10" s="6"/>
       <c r="AZ10" s="6"/>
       <c r="BA10" s="6"/>
     </row>
@@ -1599,19 +1599,8 @@
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO11" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3" t="s">
         <v>24</v>
@@ -1620,12 +1609,10 @@
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AW11" s="3"/>
-      <c r="AX11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AX11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
     </row>
@@ -1672,19 +1659,17 @@
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="16" t="s">
-        <v>67</v>
+      <c r="AK12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="AM12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AN12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5" t="s">
         <v>25</v>
@@ -1693,12 +1678,10 @@
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AW12" s="5"/>
-      <c r="AX12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="AX12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY12" s="6"/>
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
     </row>
@@ -1747,9 +1730,11 @@
       <c r="AI13" s="4"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM13" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AQ13" s="3"/>
@@ -1810,13 +1795,6 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5" t="s">
         <v>27</v>
@@ -1875,13 +1853,21 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
+      <c r="AK15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3" t="s">
         <v>28</v>
@@ -1941,9 +1927,7 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="AL16" s="5"/>
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
       <c r="AO16" s="6"/>
@@ -2017,13 +2001,6 @@
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AK17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AQ17" s="3" t="s">
@@ -2089,9 +2066,7 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="AL18" s="5"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
@@ -2154,9 +2129,7 @@
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AK19" s="3"/>
-      <c r="AL19" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="AL19" s="3"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
@@ -2219,9 +2192,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="AL20" s="5"/>
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
@@ -2284,9 +2255,7 @@
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="AL21" s="3"/>
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
@@ -2349,9 +2318,7 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="AL22" s="5"/>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
@@ -2414,9 +2381,7 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL23" s="3"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
@@ -2437,6 +2402,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="M1:Q1"/>
@@ -2444,8 +2411,6 @@
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250612 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27DE6D-94C3-2A40-9D08-C4BC3E9412F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B5E6D-91B3-DE45-937D-06BA622EE64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="-20080" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrase_comparison" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="78">
   <si>
     <t>en_US</t>
   </si>
@@ -212,59 +212,54 @@
     <t>5. 修復說明：現在所有語言使用統一的敏感詞字典，確保數量一致</t>
   </si>
   <si>
-    <t>學員</t>
+    <t>期別</t>
+  </si>
+  <si>
+    <t>年級</t>
+  </si>
+  <si>
+    <t>部門</t>
+  </si>
+  <si>
+    <t>單位相關</t>
+  </si>
+  <si>
+    <t>院系</t>
+  </si>
+  <si>
+    <t>單位</t>
+  </si>
+  <si>
+    <t>系所</t>
+  </si>
+  <si>
+    <t>設置</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>互聯網</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>期別</t>
+    <t>網路</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>講師</t>
+    <t>微信</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>教師</t>
+    <t>微博</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>年級</t>
+    <t>支付寶</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>部門</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>學期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位相關</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>院系</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>語言</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>系所</t>
+    <t>優酷</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,22 +416,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,10 +452,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -790,69 +770,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="20">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="15" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="Y1" s="15" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="Y1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AE1" s="15" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AK1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AQ1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AW1" s="15" t="s">
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AW1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:53" ht="15">
       <c r="A2" s="1" t="s">
@@ -1053,7 +1033,7 @@
         <v>15</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -1182,14 +1162,14 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
-      <c r="AK5" s="5" t="s">
+      <c r="AK5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AL5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AM5" s="6" t="s">
-        <v>65</v>
+      <c r="AM5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -1251,12 +1231,12 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>65</v>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
@@ -1381,14 +1361,14 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AK8" s="3" t="s">
+      <c r="AK8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AL8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AM8" s="4" t="s">
-        <v>64</v>
+      <c r="AM8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
@@ -1452,10 +1432,10 @@
       <c r="AI9" s="4"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -1529,11 +1509,12 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AL10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM10" s="14" t="s">
-        <v>64</v>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
@@ -1599,6 +1580,9 @@
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AQ11" s="3"/>
@@ -1660,13 +1644,13 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AK12" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AM12" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
@@ -1730,10 +1714,10 @@
       <c r="AI13" s="4"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
@@ -1795,6 +1779,11 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5" t="s">
         <v>27</v>
@@ -1853,20 +1842,20 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AK15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO15" s="6" t="s">
-        <v>75</v>
+      <c r="AK15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3" t="s">
@@ -1927,10 +1916,18 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
+      <c r="AL16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5" t="s">
         <v>29</v>
@@ -2001,8 +1998,19 @@
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="AQ17" s="3" t="s">
         <v>30</v>
       </c>
@@ -2066,10 +2074,18 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
+      <c r="AL18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5" t="s">
         <v>32</v>
@@ -2129,10 +2145,18 @@
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
+      <c r="AL19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3" t="s">
         <v>33</v>
@@ -2192,10 +2216,18 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
+      <c r="AL20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO20" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5" t="s">
         <v>34</v>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250612 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B5E6D-91B3-DE45-937D-06BA622EE64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56053B1-8A7A-AD43-A1BD-02FC640BF358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="-20080" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="80">
   <si>
     <t>en_US</t>
   </si>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>優酷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>學年</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -760,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1581,8 +1589,12 @@
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="4"/>
+      <c r="AL11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AQ11" s="3"/>
@@ -1643,15 +1655,9 @@
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AK12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM12" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
       <c r="AQ12" s="5"/>
@@ -1712,13 +1718,9 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM13" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AQ13" s="3"/>
@@ -1779,9 +1781,15 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="6"/>
+      <c r="AK14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
       <c r="AQ14" s="5"/>
@@ -1842,21 +1850,15 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AK15" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="AK15" s="3"/>
       <c r="AL15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO15" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3" t="s">
         <v>28</v>
@@ -1916,18 +1918,10 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO16" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5" t="s">
         <v>29</v>
@@ -1998,18 +1992,20 @@
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AK17" s="3"/>
+      <c r="AK17" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AL17" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AM17" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AQ17" s="3" t="s">
         <v>30</v>
@@ -2075,16 +2071,16 @@
       <c r="AI18" s="6"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO18" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5" t="s">
@@ -2146,16 +2142,16 @@
       <c r="AI19" s="4"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3" t="s">
@@ -2217,16 +2213,16 @@
       <c r="AI20" s="6"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AO20" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5" t="s">
@@ -2287,10 +2283,18 @@
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
+      <c r="AL21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3" t="s">
         <v>35</v>
@@ -2350,10 +2354,18 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
+      <c r="AL22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO22" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5" t="s">
         <v>36</v>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250612 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56053B1-8A7A-AD43-A1BD-02FC640BF358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586345F-08EA-C047-90A2-7AC34D776509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="-20080" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1655,8 +1655,8 @@
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
@@ -1718,8 +1718,8 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
@@ -2215,13 +2215,13 @@
       <c r="AL20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AM20" s="5" t="s">
+      <c r="AM20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AN20" s="5" t="s">
+      <c r="AN20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AO20" s="5" t="s">
+      <c r="AO20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="AQ20" s="5"/>
@@ -2286,13 +2286,13 @@
       <c r="AL21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AM21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AN21" s="3" t="s">
+      <c r="AN21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AO21" s="3" t="s">
+      <c r="AO21" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AQ21" s="3"/>
@@ -2357,13 +2357,13 @@
       <c r="AL22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AM22" s="5" t="s">
+      <c r="AM22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AN22" s="5" t="s">
+      <c r="AN22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AO22" s="5" t="s">
+      <c r="AO22" s="6" t="s">
         <v>77</v>
       </c>
       <c r="AQ22" s="5"/>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250612 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586345F-08EA-C047-90A2-7AC34D776509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF3B274-ECAD-6845-A96B-BA3A19D99CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="-20080" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="93">
   <si>
     <t>en_US</t>
   </si>
@@ -269,6 +269,52 @@
   <si>
     <t>年度</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>studududuud</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>学员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>期別</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>学期</t>
+  </si>
+  <si>
+    <t>学年</t>
+  </si>
+  <si>
+    <t>年级</t>
   </si>
 </sst>
 </file>
@@ -768,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -842,7 +888,7 @@
       <c r="AZ1" s="14"/>
       <c r="BA1" s="14"/>
     </row>
-    <row r="2" spans="1:53" ht="15">
+    <row r="2" spans="1:53" ht="16" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,10 +1030,12 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>14</v>
@@ -1029,9 +1077,11 @@
         <v>14</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG3" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AK3" s="3" t="s">
@@ -1101,9 +1151,7 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AF4" s="5"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
@@ -1165,9 +1213,11 @@
       <c r="AC5" s="4"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG5" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AK5" s="3" t="s">
@@ -1234,9 +1284,11 @@
       <c r="AC6" s="6"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG6" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AK6" s="5"/>
@@ -1300,9 +1352,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -1364,9 +1414,11 @@
       <c r="AC8" s="6"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG8" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AK8" s="5" t="s">
@@ -1433,9 +1485,11 @@
       <c r="AC9" s="4"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AK9" s="3"/>
@@ -1512,9 +1566,11 @@
         <v>22</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG10" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AK10" s="5"/>
@@ -1583,9 +1639,11 @@
       <c r="AC11" s="4"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG11" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AK11" s="3"/>
@@ -1649,9 +1707,7 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="AF12" s="5"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
@@ -1712,9 +1768,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="AF13" s="3"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -1776,9 +1830,11 @@
       <c r="AC14" s="6"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG14" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AK14" s="5" t="s">
@@ -1845,9 +1901,11 @@
       <c r="AC15" s="4"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG15" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AK15" s="3"/>
@@ -1911,9 +1969,7 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="AF16" s="5"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
@@ -1983,12 +2039,8 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AE17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
@@ -2063,9 +2115,7 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF18" s="5"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
@@ -2134,9 +2184,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="AF19" s="3"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
@@ -2205,9 +2253,7 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="AF20" s="5"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
@@ -2276,9 +2322,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF21" s="3"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
@@ -2347,9 +2391,7 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AE22" s="5"/>
-      <c r="AF22" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="AF22" s="5"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
@@ -2418,9 +2460,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="AF23" s="3"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250612 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF3B274-ECAD-6845-A96B-BA3A19D99CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA0430-182F-C54C-81DA-2323DB1A2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="-20080" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24000" yWindow="-17040" windowWidth="24000" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrase_comparison" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="99">
   <si>
     <t>en_US</t>
   </si>
@@ -315,6 +315,30 @@
   </si>
   <si>
     <t>年级</t>
+  </si>
+  <si>
+    <t>教學生態</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学生态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员相关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>师资相关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间相关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位相关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -814,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1074,7 +1098,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AE3" s="3" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>82</v>
@@ -1151,13 +1175,21 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="6"/>
+      <c r="AF4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="6"/>
+      <c r="AL4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
       <c r="AQ4" s="5"/>
@@ -1211,7 +1243,9 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="AF5" s="3" t="s">
         <v>88</v>
       </c>
@@ -1412,7 +1446,9 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AE8" s="5"/>
+      <c r="AE8" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="AF8" s="5" t="s">
         <v>90</v>
       </c>
@@ -1562,9 +1598,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AE10" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE10" s="5"/>
       <c r="AF10" s="5" t="s">
         <v>90</v>
       </c>
@@ -1828,7 +1862,9 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="AF14" s="5" t="s">
         <v>67</v>
       </c>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250612 detection_terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250618 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA0430-182F-C54C-81DA-2323DB1A2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8C99E-2CCB-6249-A599-CC485E31381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24000" yWindow="-17040" windowWidth="24000" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrase_comparison" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
   <si>
     <t>en_US</t>
   </si>
@@ -268,14 +268,6 @@
   </si>
   <si>
     <t>年度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>student</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>studududuud</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -838,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1054,12 +1046,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" s="3" t="s">
         <v>14</v>
@@ -1098,13 +1088,13 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AE3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -1176,19 +1166,19 @@
       <c r="AC4" s="6"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
@@ -1244,13 +1234,13 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AE5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1318,10 +1308,10 @@
       <c r="AC6" s="6"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
@@ -1447,13 +1437,13 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AE8" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
@@ -1521,10 +1511,10 @@
       <c r="AC9" s="4"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -1600,10 +1590,10 @@
       <c r="AC10" s="6"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
@@ -1673,7 +1663,7 @@
       <c r="AC11" s="4"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG11" s="4" t="s">
         <v>79</v>
@@ -1863,13 +1853,13 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AE14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF14" s="5" t="s">
         <v>67</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
@@ -1940,7 +1930,7 @@
         <v>69</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>

--- a/phrase_comparison.xlsx
+++ b/phrase_comparison.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250618 detection_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6729E4-D078-EE49-9E0B-2187E5A2F3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D22D5-5DE0-9D4D-AEF4-7C120FD160E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phrase_comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="語言總覽" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="語言總覽" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="180">
   <si>
     <t>en_US</t>
   </si>
@@ -945,11 +946,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>部門</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>返回後去調整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有企業版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>班級</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>職級</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>班期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,6 +1057,26 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1128,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1164,14 +1201,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1476,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE44" zoomScale="194" workbookViewId="0">
-      <selection activeCell="AM56" sqref="AM56"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1487,69 +1536,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="15" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="M1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="S1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="Y1" s="15" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AE1" s="15" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AE1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AK1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AQ1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AW1" s="15" t="s">
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AW1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
     </row>
     <row r="2" spans="1:53" ht="14" thickTop="1">
       <c r="A2" s="9" t="s">
@@ -2230,8 +2279,8 @@
       <c r="AL10" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AM10" s="14" t="s">
-        <v>174</v>
+      <c r="AM10" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="AN10" s="14"/>
       <c r="AO10" s="14"/>
@@ -2703,14 +2752,14 @@
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
-      <c r="AK17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM17" s="12" t="s">
-        <v>64</v>
+      <c r="AK17" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM17" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="AN17" s="12"/>
       <c r="AO17" s="12"/>
@@ -2777,11 +2826,11 @@
       <c r="AH18" s="14"/>
       <c r="AI18" s="14"/>
       <c r="AK18" s="13"/>
-      <c r="AL18" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM18" s="14" t="s">
-        <v>75</v>
+      <c r="AL18" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM18" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="AN18" s="14"/>
       <c r="AO18" s="14"/>
@@ -2843,13 +2892,9 @@
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM19" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
       <c r="AO19" s="12"/>
       <c r="AQ19" s="11"/>
@@ -2909,12 +2954,8 @@
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
       <c r="AK20" s="13"/>
-      <c r="AL20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM20" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
       <c r="AN20" s="14"/>
       <c r="AO20" s="14"/>
       <c r="AQ20" s="13"/>
@@ -2973,9 +3014,15 @@
       <c r="AG21" s="12"/>
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="12"/>
+      <c r="AK21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM21" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="AN21" s="12"/>
       <c r="AO21" s="12"/>
       <c r="AQ21" s="11"/>
@@ -3034,14 +3081,12 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="14"/>
-      <c r="AK22" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="AK22" s="13"/>
       <c r="AL22" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM22" s="14" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="AN22" s="14"/>
       <c r="AO22" s="14"/>
@@ -3103,10 +3148,10 @@
       <c r="AI23" s="12"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AM23" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AN23" s="12"/>
       <c r="AO23" s="12"/>
@@ -3128,32 +3173,30 @@
     <row r="24" spans="1:53">
       <c r="AK24" s="13"/>
       <c r="AL24" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AN24" s="14"/>
       <c r="AO24" s="14"/>
     </row>
     <row r="25" spans="1:53">
       <c r="AK25" s="11"/>
-      <c r="AL25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM25" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
       <c r="AO25" s="12"/>
     </row>
     <row r="26" spans="1:53">
-      <c r="AK26" s="13"/>
+      <c r="AK26" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="AL26" s="13" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="AN26" s="14"/>
       <c r="AO26" s="14"/>
@@ -3161,10 +3204,10 @@
     <row r="27" spans="1:53">
       <c r="AK27" s="11"/>
       <c r="AL27" s="11" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="AM27" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AN27" s="12"/>
       <c r="AO27" s="12"/>
@@ -3172,10 +3215,10 @@
     <row r="28" spans="1:53">
       <c r="AK28" s="13"/>
       <c r="AL28" s="13" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="AM28" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AN28" s="14"/>
       <c r="AO28" s="14"/>
@@ -3183,10 +3226,10 @@
     <row r="29" spans="1:53">
       <c r="AK29" s="11"/>
       <c r="AL29" s="11" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AM29" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AN29" s="12"/>
       <c r="AO29" s="12"/>
@@ -3194,10 +3237,10 @@
     <row r="30" spans="1:53">
       <c r="AK30" s="13"/>
       <c r="AL30" s="13" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="AM30" s="14" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="AN30" s="14"/>
       <c r="AO30" s="14"/>
@@ -3205,10 +3248,10 @@
     <row r="31" spans="1:53">
       <c r="AK31" s="11"/>
       <c r="AL31" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AM31" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AN31" s="12"/>
       <c r="AO31" s="12"/>
@@ -3216,10 +3259,10 @@
     <row r="32" spans="1:53">
       <c r="AK32" s="13"/>
       <c r="AL32" s="13" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AM32" s="14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN32" s="14"/>
       <c r="AO32" s="14"/>
@@ -3227,10 +3270,10 @@
     <row r="33" spans="37:41">
       <c r="AK33" s="11"/>
       <c r="AL33" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AM33" s="12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN33" s="12"/>
       <c r="AO33" s="12"/>
@@ -3238,10 +3281,10 @@
     <row r="34" spans="37:41">
       <c r="AK34" s="13"/>
       <c r="AL34" s="13" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="AM34" s="14" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="AN34" s="14"/>
       <c r="AO34" s="14"/>
@@ -3249,10 +3292,10 @@
     <row r="35" spans="37:41">
       <c r="AK35" s="11"/>
       <c r="AL35" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AM35" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AN35" s="12"/>
       <c r="AO35" s="12"/>
@@ -3260,10 +3303,10 @@
     <row r="36" spans="37:41">
       <c r="AK36" s="13"/>
       <c r="AL36" s="13" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AM36" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AN36" s="14"/>
       <c r="AO36" s="14"/>
@@ -3271,10 +3314,10 @@
     <row r="37" spans="37:41">
       <c r="AK37" s="11"/>
       <c r="AL37" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AM37" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AN37" s="12"/>
       <c r="AO37" s="12"/>
@@ -3282,10 +3325,10 @@
     <row r="38" spans="37:41">
       <c r="AK38" s="13"/>
       <c r="AL38" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AM38" s="14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="AN38" s="14"/>
       <c r="AO38" s="14"/>
@@ -3293,10 +3336,10 @@
     <row r="39" spans="37:41">
       <c r="AK39" s="11"/>
       <c r="AL39" s="11" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="AM39" s="12" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AN39" s="12"/>
       <c r="AO39" s="12"/>
@@ -3304,10 +3347,10 @@
     <row r="40" spans="37:41">
       <c r="AK40" s="13"/>
       <c r="AL40" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM40" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AN40" s="14"/>
       <c r="AO40" s="14"/>
@@ -3315,10 +3358,10 @@
     <row r="41" spans="37:41">
       <c r="AK41" s="11"/>
       <c r="AL41" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AM41" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AN41" s="12"/>
       <c r="AO41" s="12"/>
@@ -3326,10 +3369,10 @@
     <row r="42" spans="37:41">
       <c r="AK42" s="13"/>
       <c r="AL42" s="13" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="AM42" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AN42" s="14"/>
       <c r="AO42" s="14"/>
@@ -3337,10 +3380,10 @@
     <row r="43" spans="37:41">
       <c r="AK43" s="11"/>
       <c r="AL43" s="11" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="AM43" s="12" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AN43" s="12"/>
       <c r="AO43" s="12"/>
@@ -3348,10 +3391,10 @@
     <row r="44" spans="37:41">
       <c r="AK44" s="13"/>
       <c r="AL44" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AM44" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AN44" s="14"/>
       <c r="AO44" s="14"/>
@@ -3359,10 +3402,10 @@
     <row r="45" spans="37:41">
       <c r="AK45" s="11"/>
       <c r="AL45" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AM45" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AN45" s="12"/>
       <c r="AO45" s="12"/>
@@ -3370,10 +3413,10 @@
     <row r="46" spans="37:41">
       <c r="AK46" s="13"/>
       <c r="AL46" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AN46" s="14"/>
       <c r="AO46" s="14"/>
@@ -3381,10 +3424,10 @@
     <row r="47" spans="37:41">
       <c r="AK47" s="11"/>
       <c r="AL47" s="11" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AM47" s="12" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="AN47" s="12"/>
       <c r="AO47" s="12"/>
@@ -3392,10 +3435,10 @@
     <row r="48" spans="37:41">
       <c r="AK48" s="13"/>
       <c r="AL48" s="13" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AM48" s="14" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="AN48" s="14"/>
       <c r="AO48" s="14"/>
@@ -3403,10 +3446,10 @@
     <row r="49" spans="37:41">
       <c r="AK49" s="11"/>
       <c r="AL49" s="11" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="AM49" s="12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="AN49" s="12"/>
       <c r="AO49" s="12"/>
@@ -3414,10 +3457,10 @@
     <row r="50" spans="37:41">
       <c r="AK50" s="13"/>
       <c r="AL50" s="13" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AM50" s="14" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AN50" s="14"/>
       <c r="AO50" s="14"/>
@@ -3425,10 +3468,10 @@
     <row r="51" spans="37:41">
       <c r="AK51" s="11"/>
       <c r="AL51" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AM51" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AN51" s="12"/>
       <c r="AO51" s="12"/>
@@ -3436,10 +3479,10 @@
     <row r="52" spans="37:41">
       <c r="AK52" s="13"/>
       <c r="AL52" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AM52" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AN52" s="14"/>
       <c r="AO52" s="14"/>
@@ -3447,10 +3490,10 @@
     <row r="53" spans="37:41">
       <c r="AK53" s="11"/>
       <c r="AL53" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AM53" s="12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AN53" s="12"/>
       <c r="AO53" s="12"/>
@@ -3458,10 +3501,10 @@
     <row r="54" spans="37:41">
       <c r="AK54" s="13"/>
       <c r="AL54" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AM54" s="14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AN54" s="14"/>
       <c r="AO54" s="14"/>
@@ -3469,10 +3512,10 @@
     <row r="55" spans="37:41">
       <c r="AK55" s="11"/>
       <c r="AL55" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AM55" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AN55" s="12"/>
       <c r="AO55" s="12"/>
@@ -3480,10 +3523,10 @@
     <row r="56" spans="37:41">
       <c r="AK56" s="13"/>
       <c r="AL56" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AM56" s="14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AN56" s="14"/>
       <c r="AO56" s="14"/>
@@ -3491,10 +3534,10 @@
     <row r="57" spans="37:41">
       <c r="AK57" s="11"/>
       <c r="AL57" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AM57" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AN57" s="12"/>
       <c r="AO57" s="12"/>
@@ -3502,10 +3545,10 @@
     <row r="58" spans="37:41">
       <c r="AK58" s="13"/>
       <c r="AL58" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AM58" s="14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AN58" s="14"/>
       <c r="AO58" s="14"/>
@@ -3513,10 +3556,10 @@
     <row r="59" spans="37:41">
       <c r="AK59" s="11"/>
       <c r="AL59" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AM59" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AN59" s="12"/>
       <c r="AO59" s="12"/>
@@ -3524,57 +3567,73 @@
     <row r="60" spans="37:41">
       <c r="AK60" s="13"/>
       <c r="AL60" s="13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AM60" s="14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AN60" s="14"/>
       <c r="AO60" s="14"/>
     </row>
     <row r="61" spans="37:41">
       <c r="AK61" s="11"/>
-      <c r="AL61" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM61" s="18" t="s">
-        <v>116</v>
+      <c r="AL61" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM61" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="AN61" s="12"/>
       <c r="AO61" s="12"/>
     </row>
     <row r="62" spans="37:41">
       <c r="AK62" s="13"/>
-      <c r="AL62" s="13"/>
-      <c r="AM62" s="14"/>
+      <c r="AL62" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM62" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="AN62" s="14"/>
       <c r="AO62" s="14"/>
     </row>
     <row r="63" spans="37:41">
       <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="12"/>
+      <c r="AL63" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM63" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="AN63" s="12"/>
       <c r="AO63" s="12"/>
     </row>
     <row r="64" spans="37:41">
       <c r="AK64" s="13"/>
-      <c r="AL64" s="13"/>
-      <c r="AM64" s="14"/>
+      <c r="AL64" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM64" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="AN64" s="14"/>
       <c r="AO64" s="14"/>
     </row>
     <row r="65" spans="37:41">
       <c r="AK65" s="11"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="12"/>
+      <c r="AL65" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM65" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="AN65" s="12"/>
       <c r="AO65" s="12"/>
     </row>
     <row r="66" spans="37:41">
       <c r="AK66" s="13"/>
-      <c r="AL66" s="13"/>
-      <c r="AM66" s="14"/>
+      <c r="AL66" s="22"/>
+      <c r="AM66" s="24"/>
       <c r="AN66" s="14"/>
       <c r="AO66" s="14"/>
     </row>
@@ -4002,10 +4061,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E015753-01C1-394E-AC43-FF7D91DDBE75}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="221" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
